--- a/6/6tka.xlsx
+++ b/6/6tka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A4EFE-5040-4BC3-8C4B-62C560DEB69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644F627B-42B4-4256-A157-780C014DE344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="17">
   <si>
     <t>xr</t>
   </si>
@@ -83,11 +83,20 @@
   <si>
     <t>u(λ)</t>
   </si>
+  <si>
+    <t>poprawny zapis</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.00000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,11 +155,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -180,8 +186,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>322184</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504987</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>167736</xdr:rowOff>
     </xdr:to>
@@ -224,8 +230,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>540551</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>117217</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>75991</xdr:rowOff>
     </xdr:to>
@@ -350,16 +356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>153940</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200472</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107698</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287062</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -382,7 +388,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6051743" y="1270000"/>
+          <a:off x="6782955" y="1385455"/>
           <a:ext cx="4289486" cy="665728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -394,16 +400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>96213</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28864</xdr:rowOff>
+      <xdr:rowOff>144319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>469334</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>103813</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>555925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,7 +432,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5994016" y="2039697"/>
+          <a:off x="6725228" y="2155152"/>
           <a:ext cx="5222212" cy="806161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -702,21 +708,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336A725-1A1C-4F2D-9234-A62E4BB6A2B9}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="8" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -729,18 +738,18 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="1">
         <f>1/300000</f>
         <v>3.3333333333333333E-6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -753,14 +762,17 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -774,16 +786,20 @@
         <f>(C3+D3)/2</f>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <f>$I$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
         <v>5.9050999438421715E-7</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>SQRT(($I$1*$C$1^2*$C$37/B3/(E3^2+$C$1^2)^1.5)^2+(-$I$1*$C$1*E3*$C$37/B3/(E3^2+$C$1^2)^1.5)^2)</f>
         <v>4.566103455937926E-8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="1" t="str">
+        <f>TEXT(H3,"0,00E+00")</f>
+        <v>4,57E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -797,12 +813,16 @@
         <f t="shared" ref="E4:E11" si="0">(C4+D4)/2</f>
         <v>3.9E-2</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G29" si="1">$I$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
+      <c r="G4" s="2">
+        <f>$I$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
         <v>6.0557546081940643E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4" s="2">
+        <f>SQRT(($I$1*$C$1^2*$C$37/B4/(E4^2+$C$1^2)^1.5)^2+(-$I$1*$C$1*E4*$C$37/B4/(E4^2+$C$1^2)^1.5)^2)</f>
+        <v>2.0458489748764493E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -816,12 +836,16 @@
         <f t="shared" si="0"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" si="1"/>
+      <c r="G5" s="2">
+        <f>$I$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
         <v>6.1204689814526509E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="2">
+        <f>SQRT(($I$1*$C$1^2*$C$37/B5/(E5^2+$C$1^2)^1.5)^2+(-$I$1*$C$1*E5*$C$37/B5/(E5^2+$C$1^2)^1.5)^2)</f>
+        <v>1.0945586532716442E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -832,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -845,11 +869,14 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -863,12 +890,19 @@
         <f t="shared" si="0"/>
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <f>$I$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
         <v>6.1165704367628607E-7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9" s="2">
+        <f>SQRT(($I$1*$C$7^2*$C$37/B9/(E9^2+$C$7^2)^1.5)^2+(-$I$1*$C$7*E9*$C$37/B9/(E9^2+$C$7^2)^1.5)^2)</f>
+        <v>3.0368784624057185E-8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -882,15 +916,16 @@
         <f t="shared" si="0"/>
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" ref="G10:G11" si="2">$I$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
+      <c r="G10" s="2">
+        <f>$I$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
         <v>6.2342351471836631E-7</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10" s="2">
+        <f>SQRT(($I$1*$C$7^2*$C$37/B10/(E10^2+$C$7^2)^1.5)^2+(-$I$1*$C$7*E10*$C$37/B10/(E10^2+$C$7^2)^1.5)^2)</f>
+        <v>1.3514908710477683E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -904,12 +939,16 @@
         <f t="shared" si="0"/>
         <v>9.9499999999999991E-2</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" si="2"/>
+      <c r="G11" s="2">
+        <f>$I$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
         <v>6.1419516128867084E-7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11" s="2">
+        <f>SQRT(($I$1*$C$7^2*$C$37/B11/(E11^2+$C$7^2)^1.5)^2+(-$I$1*$C$7*E11*$C$37/B11/(E11^2+$C$7^2)^1.5)^2)</f>
+        <v>7.2747049913354337E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -920,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -933,11 +972,14 @@
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -948,15 +990,19 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E29" si="3">(C15+D15)/2</f>
+        <f t="shared" ref="E15:E29" si="1">(C15+D15)/2</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <f>$I$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
         <v>6.2220215274423388E-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="2">
+        <f>SQRT(($I$1*$C$13^2*$C$37/B15/(E15^2+$C$13^2)^1.5)^2+(-$I$1*$C$13*E15*$C$37/B15/(E15^2+$C$13^2)^1.5)^2)</f>
+        <v>2.2748987587637852E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -967,15 +1013,19 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.85E-2</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" ref="G16:G17" si="4">$I$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
+      <c r="G16" s="2">
+        <f>$I$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
         <v>6.0894058768842842E-7</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="2">
+        <f>SQRT(($I$1*$C$13^2*$C$37/B16/(E16^2+$C$13^2)^1.5)^2+(-$I$1*$C$13*E16*$C$37/B16/(E16^2+$C$13^2)^1.5)^2)</f>
+        <v>1.021190519940063E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -986,15 +1036,19 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.13650000000000001</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="4"/>
+      <c r="G17" s="2">
+        <f>$I$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
         <v>6.263568937931525E-7</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="2">
+        <f>SQRT(($I$1*$C$13^2*$C$37/B17/(E17^2+$C$13^2)^1.5)^2+(-$I$1*$C$13*E17*$C$37/B17/(E17^2+$C$13^2)^1.5)^2)</f>
+        <v>5.3600139944715467E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1018,11 +1072,14 @@
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -1033,15 +1090,31 @@
         <v>4.7E-2</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.7E-2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <f>$I$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
         <v>6.1587738773295786E-7</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="2">
+        <f>SQRT(($I$1*$C$19^2*$C$37/B21/(E21^2+$C$19^2)^1.5)^2+(-$I$1*$C$19*E21*$C$37/B21/(E21^2+$C$19^2)^1.5)^2)</f>
+        <v>1.8212478974757437E-8</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="4">
+        <f>G3</f>
+        <v>5.9050999438421715E-7</v>
+      </c>
+      <c r="M21" s="4">
+        <f>ROUNDDOWN(L21,8)</f>
+        <v>5.8999999999999996E-7</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1052,15 +1125,34 @@
         <v>0.1</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.10100000000000001</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" ref="G22:G23" si="5">$I$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
+      <c r="G22" s="2">
+        <f>$I$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
         <v>6.2430948208342998E-7</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="2">
+        <f>SQRT(($I$1*$C$19^2*$C$37/B22/(E22^2+$C$19^2)^1.5)^2+(-$I$1*$C$19*E22*$C$37/B22/(E22^2+$C$19^2)^1.5)^2)</f>
+        <v>8.1051932021401288E-9</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="4">
+        <f>H3</f>
+        <v>4.566103455937926E-8</v>
+      </c>
+      <c r="M22" s="4">
+        <f>L22*10^8</f>
+        <v>4.5661034559379257</v>
+      </c>
+      <c r="N22" s="4" t="str">
+        <f>LEFT(M22*10,2)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1071,15 +1163,19 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.17399999999999999</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="5"/>
+      <c r="G23" s="2">
+        <f>$I$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
         <v>6.3472984126403613E-7</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="2">
+        <f>SQRT(($I$1*$C$19^2*$C$37/B23/(E23^2+$C$19^2)^1.5)^2+(-$I$1*$C$19*E23*$C$37/B23/(E23^2+$C$19^2)^1.5)^2)</f>
+        <v>4.2342534778303997E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1103,11 +1199,14 @@
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -1118,15 +1217,19 @@
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ref="E27" si="6">(C27+D27)/2</f>
+        <f t="shared" ref="E27" si="2">(C27+D27)/2</f>
         <v>5.7499999999999996E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="2">
         <f>$I$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
         <v>6.2746747984227358E-7</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="2">
+        <f>SQRT(($I$1*$C$25^2*$C$37/B27/(E27^2+$C$25^2)^1.5)^2+(-$I$1*$C$25*E27*$C$37/B27/(E27^2+$C$25^2)^1.5)^2)</f>
+        <v>1.5156686313865316E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -1137,15 +1240,19 @@
         <v>0.12300000000000001</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.1215</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" ref="G28:G29" si="7">$I$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
+      <c r="G28" s="2">
+        <f>$I$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
         <v>6.2563727953273217E-7</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="2">
+        <f>SQRT(($I$1*$C$25^2*$C$37/B28/(E28^2+$C$25^2)^1.5)^2+(-$I$1*$C$25*E28*$C$37/B28/(E28^2+$C$25^2)^1.5)^2)</f>
+        <v>6.7496333954888082E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>3</v>
       </c>
@@ -1156,20 +1263,24 @@
         <v>0.21300000000000002</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.20900000000000002</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="7"/>
+      <c r="G29" s="2">
+        <f>$I$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
         <v>6.351392236534074E-7</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="2">
+        <f>SQRT(($I$1*$C$25^2*$C$37/B29/(E29^2+$C$25^2)^1.5)^2+(-$I$1*$C$25*E29*$C$37/B29/(E29^2+$C$25^2)^1.5)^2)</f>
+        <v>3.52633897705008E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>2E-3</v>
       </c>

--- a/6/6tka.xlsx
+++ b/6/6tka.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644F627B-42B4-4256-A157-780C014DE344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2871F-4850-43DD-B099-2ED30752130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zad 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Pomiar" sheetId="1" r:id="rId2"/>
+    <sheet name="Zadania w cm" sheetId="5" r:id="rId1"/>
+    <sheet name="Zadania w m" sheetId="3" r:id="rId2"/>
+    <sheet name="temp" sheetId="4" r:id="rId3"/>
+    <sheet name="Pomiar" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="50">
   <si>
     <t>xr</t>
   </si>
@@ -75,29 +77,129 @@
     <t>u(xL) = u(xP)</t>
   </si>
   <si>
-    <t>u(xN)</t>
-  </si>
-  <si>
     <t>3)</t>
   </si>
   <si>
     <t>u(λ)</t>
   </si>
   <si>
-    <t>poprawny zapis</t>
+    <t>4)</t>
   </si>
   <si>
-    <t>u</t>
+    <t>Zapis xn</t>
+  </si>
+  <si>
+    <t>Zapis λ</t>
+  </si>
+  <si>
+    <t>λ*w = λ/u(λ)^2</t>
+  </si>
+  <si>
+    <t>w = 1/u(λ)^2</t>
+  </si>
+  <si>
+    <t>śr. waż λ</t>
+  </si>
+  <si>
+    <t>u(śr waż λ)</t>
+  </si>
+  <si>
+    <t>Zapis śr. waż λ</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>u(xn)</t>
+  </si>
+  <si>
+    <t>m:</t>
+  </si>
+  <si>
+    <t>nm:</t>
+  </si>
+  <si>
+    <t>Rząd N</t>
+  </si>
+  <si>
+    <t>cm:</t>
+  </si>
+  <si>
+    <t>1,80(14)</t>
+  </si>
+  <si>
+    <t>3,90(14)</t>
+  </si>
+  <si>
+    <t>6,60(14)</t>
+  </si>
+  <si>
+    <t>2,80(14)</t>
+  </si>
+  <si>
+    <t>6,05(14)</t>
+  </si>
+  <si>
+    <t>9,95(14)</t>
+  </si>
+  <si>
+    <t>3,80(14)</t>
+  </si>
+  <si>
+    <t>7,85(14)</t>
+  </si>
+  <si>
+    <t>13,65(14)</t>
+  </si>
+  <si>
+    <t>4,70(14)</t>
+  </si>
+  <si>
+    <t>10,10(14)</t>
+  </si>
+  <si>
+    <t>17,40(14)</t>
+  </si>
+  <si>
+    <t>5,75(14)</t>
+  </si>
+  <si>
+    <t>12,15(14)</t>
+  </si>
+  <si>
+    <t>20,90(14)</t>
+  </si>
+  <si>
+    <t>Zapis xn [cm]</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>Zapis λ w [nm]</t>
+  </si>
+  <si>
+    <t>Zapis xn w [cm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L = </t>
+  </si>
+  <si>
+    <t>Jednostka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.00000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +213,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,11 +252,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,7 +278,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -180,14 +320,283 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504987</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306204</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6401AA88-3B87-40FB-84CD-E5E8E8D284DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8569325" y="0"/>
+          <a:ext cx="3224029" cy="739236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498217</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>75991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72A5634-65D4-4370-A40F-41C7EBF274EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="762001"/>
+          <a:ext cx="3984367" cy="456990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>240530</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50654</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA692A3-4921-4FC1-91A1-9B0292F469E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1621655" y="5601470"/>
+          <a:ext cx="3658224" cy="512576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288636</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>839397</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1505B0CA-61A7-4FE4-BC2E-7DD4F155F5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1669761" y="6201834"/>
+          <a:ext cx="2884386" cy="548088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88279</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB79B967-7EE3-47F8-A29A-342C53D6ED7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620703" y="1439334"/>
+          <a:ext cx="4116776" cy="696516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357143</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obraz 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA5F7E6-FCA3-4BD7-8812-584E2F8BE38E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562976" y="2239819"/>
+          <a:ext cx="5024392" cy="844646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306204</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>167736</xdr:rowOff>
     </xdr:to>
@@ -224,14 +633,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>117217</xdr:colOff>
+      <xdr:colOff>498216</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>75991</xdr:rowOff>
     </xdr:to>
@@ -274,8 +683,8 @@
       <xdr:rowOff>76970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9241</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>630437</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>18046</xdr:rowOff>
     </xdr:to>
@@ -318,8 +727,8 @@
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>69114</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>839397</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>82422</xdr:rowOff>
     </xdr:to>
@@ -356,14 +765,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57728</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>287062</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88279</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>40350</xdr:rowOff>
     </xdr:to>
@@ -400,14 +809,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>144319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>555925</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357142</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>36465</xdr:rowOff>
     </xdr:to>
@@ -707,25 +1116,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336A725-1A1C-4F2D-9234-A62E4BB6A2B9}">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7F5E49-8A1C-4415-AA0A-63BEE195A981}">
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="8" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1"/>
-    <col min="12" max="12" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="8.7109375" style="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,23 +1150,23 @@
         <v>3</v>
       </c>
       <c r="C1" s="2">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1">
-        <f>1/300000</f>
-        <v>3.3333333333333333E-6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="1">
+        <f>1/3000</f>
+        <v>3.3333333333333332E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -762,101 +1179,124 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1.8000000000000002E-2</v>
+        <v>1.8</v>
       </c>
       <c r="D3" s="2">
-        <v>1.8000000000000002E-2</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="2">
         <f>(C3+D3)/2</f>
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <f>$I$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
-        <v>5.9050999438421715E-7</v>
+        <v>1.8</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(E3,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>1,80(14)</v>
       </c>
       <c r="H3" s="2">
-        <f>SQRT(($I$1*$C$1^2*$C$37/B3/(E3^2+$C$1^2)^1.5)^2+(-$I$1*$C$1*E3*$C$37/B3/(E3^2+$C$1^2)^1.5)^2)</f>
-        <v>4.566103455937926E-8</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f>TEXT(H3,"0,00E+00")</f>
-        <v>4,57E-08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <f>$J$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
+        <v>5.9050999438421717E-5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>SQRT(($J$1*$C$1^2*$C$37/B3/(E3^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E3*$C$37/B3/(E3^2+$C$1^2)^1.5)^2)</f>
+        <v>4.5661034559379278E-6</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(H3,RIGHT(TEXT(I3,"0,00E+00"),2)+1,TRUE),"(",LEFT(I3*10^LEN(I3),2),")")</f>
+        <v>0,0000591(45)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="D4" s="2">
-        <v>3.9E-2</v>
+        <v>3.9</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E11" si="0">(C4+D4)/2</f>
-        <v>3.9E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f>$I$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
-        <v>6.0557546081940643E-7</v>
+        <v>3.9</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F5" si="1">_xlfn.CONCAT(FIXED(E4,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>3,90(14)</v>
       </c>
       <c r="H4" s="2">
-        <f>SQRT(($I$1*$C$1^2*$C$37/B4/(E4^2+$C$1^2)^1.5)^2+(-$I$1*$C$1*E4*$C$37/B4/(E4^2+$C$1^2)^1.5)^2)</f>
-        <v>2.0458489748764493E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <f>$J$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
+        <v>6.0557546081940649E-5</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SQRT(($J$1*$C$1^2*$C$37/B4/(E4^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E4*$C$37/B4/(E4^2+$C$1^2)^1.5)^2)</f>
+        <v>2.0458489748764499E-6</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" ref="J4:J5" si="2">_xlfn.CONCAT(FIXED(H4,RIGHT(TEXT(I4,"0,00E+00"),2)+1,TRUE),"(",LEFT(I4*10^LEN(I4),2),")")</f>
+        <v>0,0000606(20)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>6.6</v>
       </c>
       <c r="D5" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>6.6</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f>$I$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
-        <v>6.1204689814526509E-7</v>
+        <v>6.6</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>6,60(14)</v>
       </c>
       <c r="H5" s="2">
-        <f>SQRT(($I$1*$C$1^2*$C$37/B5/(E5^2+$C$1^2)^1.5)^2+(-$I$1*$C$1*E5*$C$37/B5/(E5^2+$C$1^2)^1.5)^2)</f>
-        <v>1.0945586532716442E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <f>$J$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
+        <v>6.1204689814526496E-5</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SQRT(($J$1*$C$1^2*$C$37/B5/(E5^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E5*$C$37/B5/(E5^2+$C$1^2)^1.5)^2)</f>
+        <v>1.0945586532716436E-6</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0000612(10)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -869,97 +1309,127 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>2.7999999999999997E-2</v>
+        <v>2.8</v>
       </c>
       <c r="D9" s="2">
-        <v>2.7999999999999997E-2</v>
+        <v>2.8</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f>$I$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
-        <v>6.1165704367628607E-7</v>
+        <v>2.8</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" ref="F9:F29" si="3">_xlfn.CONCAT(FIXED(E9,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>2,80(14)</v>
       </c>
       <c r="H9" s="2">
-        <f>SQRT(($I$1*$C$7^2*$C$37/B9/(E9^2+$C$7^2)^1.5)^2+(-$I$1*$C$7*E9*$C$37/B9/(E9^2+$C$7^2)^1.5)^2)</f>
-        <v>3.0368784624057185E-8</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <f>$J$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
+        <v>6.116570436762861E-5</v>
+      </c>
+      <c r="I9" s="2">
+        <f>SQRT(($J$1*$C$7^2*$C$37/B9/(E9^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E9*$C$37/B9/(E9^2+$C$7^2)^1.5)^2)</f>
+        <v>3.0368784624057204E-6</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" ref="J9:J29" si="4">_xlfn.CONCAT(FIXED(H9,RIGHT(TEXT(I9,"0,00E+00"),2)+1,TRUE),"(",LEFT(I9*10^LEN(I9),2),")")</f>
+        <v>0,0000612(30)</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>6.0999999999999999E-2</v>
+        <v>6.1</v>
       </c>
       <c r="D10" s="2">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f>$I$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
-        <v>6.2342351471836631E-7</v>
+        <v>6.05</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>6,05(14)</v>
       </c>
       <c r="H10" s="2">
-        <f>SQRT(($I$1*$C$7^2*$C$37/B10/(E10^2+$C$7^2)^1.5)^2+(-$I$1*$C$7*E10*$C$37/B10/(E10^2+$C$7^2)^1.5)^2)</f>
-        <v>1.3514908710477683E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <f>$J$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
+        <v>6.2342351471836627E-5</v>
+      </c>
+      <c r="I10" s="2">
+        <f>SQRT(($J$1*$C$7^2*$C$37/B10/(E10^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E10*$C$37/B10/(E10^2+$C$7^2)^1.5)^2)</f>
+        <v>1.3514908710477694E-6</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000623(13)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>9.6999999999999989E-2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D11" s="2">
-        <v>0.10199999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>9.9499999999999991E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <f>$I$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
-        <v>6.1419516128867084E-7</v>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>9,95(14)</v>
       </c>
       <c r="H11" s="2">
-        <f>SQRT(($I$1*$C$7^2*$C$37/B11/(E11^2+$C$7^2)^1.5)^2+(-$I$1*$C$7*E11*$C$37/B11/(E11^2+$C$7^2)^1.5)^2)</f>
-        <v>7.2747049913354337E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <f>$J$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
+        <v>6.1419516128867078E-5</v>
+      </c>
+      <c r="I11" s="2">
+        <f>SQRT(($J$1*$C$7^2*$C$37/B11/(E11^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E11*$C$37/B11/(E11^2+$C$7^2)^1.5)^2)</f>
+        <v>7.274704991335439E-7</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00006142(72)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -972,94 +1442,125 @@
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="D15" s="2">
-        <v>3.7999999999999999E-2</v>
+        <v>3.8</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E29" si="1">(C15+D15)/2</f>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <f>$I$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
-        <v>6.2220215274423388E-7</v>
+        <f t="shared" ref="E15:E29" si="5">(C15+D15)/2</f>
+        <v>3.8</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" ref="F15" si="6">_xlfn.CONCAT(FIXED(E15,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>3,80(14)</v>
       </c>
       <c r="H15" s="2">
-        <f>SQRT(($I$1*$C$13^2*$C$37/B15/(E15^2+$C$13^2)^1.5)^2+(-$I$1*$C$13*E15*$C$37/B15/(E15^2+$C$13^2)^1.5)^2)</f>
-        <v>2.2748987587637852E-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <f>$J$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
+        <v>6.2220215274423393E-5</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SQRT(($J$1*$C$13^2*$C$37/B15/(E15^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E15*$C$37/B15/(E15^2+$C$13^2)^1.5)^2)</f>
+        <v>2.2748987587637857E-6</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" ref="J15" si="7">_xlfn.CONCAT(FIXED(H15,RIGHT(TEXT(I15,"0,00E+00"),2)+1,TRUE),"(",LEFT(I15*10^LEN(I15),2),")")</f>
+        <v>0,0000622(22)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>7.8E-2</v>
+        <v>7.8</v>
       </c>
       <c r="D16" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>7.9</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>7.85E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <f>$I$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
-        <v>6.0894058768842842E-7</v>
+        <f t="shared" si="5"/>
+        <v>7.85</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>7,85(14)</v>
       </c>
       <c r="H16" s="2">
-        <f>SQRT(($I$1*$C$13^2*$C$37/B16/(E16^2+$C$13^2)^1.5)^2+(-$I$1*$C$13*E16*$C$37/B16/(E16^2+$C$13^2)^1.5)^2)</f>
-        <v>1.021190519940063E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+        <f>$J$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
+        <v>6.0894058768842837E-5</v>
+      </c>
+      <c r="I16" s="2">
+        <f>SQRT(($J$1*$C$13^2*$C$37/B16/(E16^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E16*$C$37/B16/(E16^2+$C$13^2)^1.5)^2)</f>
+        <v>1.0211905199400624E-6</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000609(10)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>0.13400000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="D17" s="2">
-        <v>0.13900000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="G17" s="2">
-        <f>$I$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
-        <v>6.263568937931525E-7</v>
+        <f t="shared" si="5"/>
+        <v>13.65</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>13,65(14)</v>
       </c>
       <c r="H17" s="2">
-        <f>SQRT(($I$1*$C$13^2*$C$37/B17/(E17^2+$C$13^2)^1.5)^2+(-$I$1*$C$13*E17*$C$37/B17/(E17^2+$C$13^2)^1.5)^2)</f>
-        <v>5.3600139944715467E-9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+        <f>$J$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
+        <v>6.2635689379315256E-5</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SQRT(($J$1*$C$13^2*$C$37/B17/(E17^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E17*$C$37/B17/(E17^2+$C$13^2)^1.5)^2)</f>
+        <v>5.3600139944715486E-7</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00006264(53)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1072,121 +1573,143 @@
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="D21" s="2">
-        <v>4.7E-2</v>
+        <v>4.7</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <f>$I$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
-        <v>6.1587738773295786E-7</v>
+        <f t="shared" si="5"/>
+        <v>4.7</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" ref="F21" si="8">_xlfn.CONCAT(FIXED(E21,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>4,70(14)</v>
       </c>
       <c r="H21" s="2">
-        <f>SQRT(($I$1*$C$19^2*$C$37/B21/(E21^2+$C$19^2)^1.5)^2+(-$I$1*$C$19*E21*$C$37/B21/(E21^2+$C$19^2)^1.5)^2)</f>
-        <v>1.8212478974757437E-8</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="4">
-        <f>G3</f>
-        <v>5.9050999438421715E-7</v>
-      </c>
-      <c r="M21" s="4">
-        <f>ROUNDDOWN(L21,8)</f>
-        <v>5.8999999999999996E-7</v>
-      </c>
+        <f>$J$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
+        <v>6.1587738773295785E-5</v>
+      </c>
+      <c r="I21" s="2">
+        <f>SQRT(($J$1*$C$19^2*$C$37/B21/(E21^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E21*$C$37/B21/(E21^2+$C$19^2)^1.5)^2)</f>
+        <v>1.8212478974757448E-6</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" ref="J21" si="9">_xlfn.CONCAT(FIXED(H21,RIGHT(TEXT(I21,"0,00E+00"),2)+1,TRUE),"(",LEFT(I21*10^LEN(I21),2),")")</f>
+        <v>0,0000616(18)</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>0.10199999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G22" s="2">
-        <f>$I$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
-        <v>6.2430948208342998E-7</v>
+        <f t="shared" si="5"/>
+        <v>10.1</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>10,10(14)</v>
       </c>
       <c r="H22" s="2">
-        <f>SQRT(($I$1*$C$19^2*$C$37/B22/(E22^2+$C$19^2)^1.5)^2+(-$I$1*$C$19*E22*$C$37/B22/(E22^2+$C$19^2)^1.5)^2)</f>
-        <v>8.1051932021401288E-9</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="4">
-        <f>H3</f>
-        <v>4.566103455937926E-8</v>
-      </c>
-      <c r="M22" s="4">
-        <f>L22*10^8</f>
-        <v>4.5661034559379257</v>
-      </c>
-      <c r="N22" s="4" t="str">
-        <f>LEFT(M22*10,2)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+        <f>$J$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
+        <v>6.243094820834299E-5</v>
+      </c>
+      <c r="I22" s="2">
+        <f>SQRT(($J$1*$C$19^2*$C$37/B22/(E22^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E22*$C$37/B22/(E22^2+$C$19^2)^1.5)^2)</f>
+        <v>8.1051932021401336E-7</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00006243(81)</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>0.17399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.17399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <f>$I$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
-        <v>6.3472984126403613E-7</v>
+        <f t="shared" si="5"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>17,40(14)</v>
       </c>
       <c r="H23" s="2">
-        <f>SQRT(($I$1*$C$19^2*$C$37/B23/(E23^2+$C$19^2)^1.5)^2+(-$I$1*$C$19*E23*$C$37/B23/(E23^2+$C$19^2)^1.5)^2)</f>
-        <v>4.2342534778303997E-9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+        <f>$J$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
+        <v>6.3472984126403611E-5</v>
+      </c>
+      <c r="I23" s="2">
+        <f>SQRT(($J$1*$C$19^2*$C$37/B23/(E23^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E23*$C$37/B23/(E23^2+$C$19^2)^1.5)^2)</f>
+        <v>4.2342534778303943E-7</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00006347(42)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1199,99 +1722,562 @@
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7</v>
       </c>
       <c r="D27" s="2">
-        <v>5.7999999999999996E-2</v>
+        <v>5.8</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ref="E27" si="2">(C27+D27)/2</f>
-        <v>5.7499999999999996E-2</v>
-      </c>
-      <c r="G27" s="2">
-        <f>$I$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
-        <v>6.2746747984227358E-7</v>
+        <f t="shared" ref="E27" si="10">(C27+D27)/2</f>
+        <v>5.75</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" ref="F27" si="11">_xlfn.CONCAT(FIXED(E27,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>5,75(14)</v>
       </c>
       <c r="H27" s="2">
-        <f>SQRT(($I$1*$C$25^2*$C$37/B27/(E27^2+$C$25^2)^1.5)^2+(-$I$1*$C$25*E27*$C$37/B27/(E27^2+$C$25^2)^1.5)^2)</f>
-        <v>1.5156686313865316E-8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+        <f>$J$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
+        <v>6.2746747984227357E-5</v>
+      </c>
+      <c r="I27" s="2">
+        <f>SQRT(($J$1*$C$25^2*$C$37/B27/(E27^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E27*$C$37/B27/(E27^2+$C$25^2)^1.5)^2)</f>
+        <v>1.5156686313865314E-6</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" ref="J27" si="12">_xlfn.CONCAT(FIXED(H27,RIGHT(TEXT(I27,"0,00E+00"),2)+1,TRUE),"(",LEFT(I27*10^LEN(I27),2),")")</f>
+        <v>0,0000627(15)</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2">
-        <v>0.12300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1215</v>
-      </c>
-      <c r="G28" s="2">
-        <f>$I$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
-        <v>6.2563727953273217E-7</v>
+        <f t="shared" si="5"/>
+        <v>12.15</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>12,15(14)</v>
       </c>
       <c r="H28" s="2">
-        <f>SQRT(($I$1*$C$25^2*$C$37/B28/(E28^2+$C$25^2)^1.5)^2+(-$I$1*$C$25*E28*$C$37/B28/(E28^2+$C$25^2)^1.5)^2)</f>
-        <v>6.7496333954888082E-9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+        <f>$J$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
+        <v>6.2563727953273213E-5</v>
+      </c>
+      <c r="I28" s="2">
+        <f>SQRT(($J$1*$C$25^2*$C$37/B28/(E28^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E28*$C$37/B28/(E28^2+$C$25^2)^1.5)^2)</f>
+        <v>6.7496333954888084E-7</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00006256(67)</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>0.20500000000000002</v>
+        <v>20.5</v>
       </c>
       <c r="D29" s="2">
-        <v>0.21300000000000002</v>
+        <v>21.3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20900000000000002</v>
-      </c>
-      <c r="G29" s="2">
-        <f>$I$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
-        <v>6.351392236534074E-7</v>
+        <f t="shared" si="5"/>
+        <v>20.9</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>20,90(14)</v>
       </c>
       <c r="H29" s="2">
-        <f>SQRT(($I$1*$C$25^2*$C$37/B29/(E29^2+$C$25^2)^1.5)^2+(-$I$1*$C$25*E29*$C$37/B29/(E29^2+$C$25^2)^1.5)^2)</f>
-        <v>3.52633897705008E-9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+        <f>$J$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
+        <v>6.3513922365340735E-5</v>
+      </c>
+      <c r="I29" s="2">
+        <f>SQRT(($J$1*$C$25^2*$C$37/B29/(E29^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E29*$C$37/B29/(E29^2+$C$25^2)^1.5)^2)</f>
+        <v>3.5263389770500829E-7</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,00006351(35)</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1">
         <f>(SQRT(2*B32^2))/2</f>
-        <v>1.414213562373095E-3</v>
+        <v>0.14142135623730953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="2">
+        <f>H3</f>
+        <v>5.9050999438421717E-5</v>
+      </c>
+      <c r="D41" s="2">
+        <f>I3</f>
+        <v>4.5661034559379278E-6</v>
+      </c>
+      <c r="E41" s="2">
+        <f>1/D41^2</f>
+        <v>47963239200.000008</v>
+      </c>
+      <c r="F41" s="2">
+        <f>C41*E41</f>
+        <v>2832277.2110640868</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2">
+        <f>SUM(F41:F55)/SUM(E41:E55)</f>
+        <v>6.2816330289970155E-5</v>
+      </c>
+      <c r="I41" s="2">
+        <f>SQRT(1/SUM(E41:E55))</f>
+        <v>1.9472312111602983E-7</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(H41,RIGHT(TEXT(I41,"0,00E+00"),2)+1,TRUE),"(",LEFT(I41*10^LEN(I41),2),")")</f>
+        <v>0,00006282(19)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="2">
+        <f>H4</f>
+        <v>6.0557546081940649E-5</v>
+      </c>
+      <c r="D42" s="2">
+        <f>I4</f>
+        <v>2.0458489748764499E-6</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:E55" si="13">1/D42^2</f>
+        <v>238920193800.00006</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" ref="F42:F55" si="14">C42*E42</f>
+        <v>14468420.645949693</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="1">
+        <f>H41*10^7</f>
+        <v>628.16330289970153</v>
+      </c>
+      <c r="I42" s="1">
+        <f>I41*10^7</f>
+        <v>1.9472312111602983</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(H42,RIGHT(TEXT(I42,"0,00E+00"),2)+1,TRUE),"(",LEFT(I42*10^LEN(I42),2),")")</f>
+        <v>628,2(19)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="2">
+        <f>H5</f>
+        <v>6.1204689814526496E-5</v>
+      </c>
+      <c r="D43" s="2">
+        <f>I5</f>
+        <v>1.0945586532716436E-6</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="13"/>
+        <v>834683680800.00073</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="14"/>
+        <v>51086555.776611291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C44" s="2">
+        <f>H9</f>
+        <v>6.116570436762861E-5</v>
+      </c>
+      <c r="D44" s="2">
+        <f>I9</f>
+        <v>3.0368784624057204E-6</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="13"/>
+        <v>108428931199.99986</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="14"/>
+        <v>6632131.9506771341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C45" s="2">
+        <f>H10</f>
+        <v>6.2342351471836627E-5</v>
+      </c>
+      <c r="D45" s="2">
+        <f>I10</f>
+        <v>1.3514908710477694E-6</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="13"/>
+        <v>547486944049.99896</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="14"/>
+        <v>34131623.49220679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C46" s="2">
+        <f>H11</f>
+        <v>6.1419516128867078E-5</v>
+      </c>
+      <c r="D46" s="2">
+        <f>I11</f>
+        <v>7.274704991335439E-7</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="13"/>
+        <v>1889597160112.4966</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="14"/>
+        <v>116058143.25259091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C47" s="2">
+        <f>H15</f>
+        <v>6.2220215274423393E-5</v>
+      </c>
+      <c r="D47" s="2">
+        <f>I15</f>
+        <v>2.2748987587637857E-6</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="13"/>
+        <v>193230577800.00003</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="14"/>
+        <v>12022848.14831722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C48" s="2">
+        <f>H16</f>
+        <v>6.0894058768842837E-5</v>
+      </c>
+      <c r="D48" s="2">
+        <f>I16</f>
+        <v>1.0211905199400624E-6</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="13"/>
+        <v>958928996278.12573</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="14"/>
+        <v>58393078.654507659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C49" s="2">
+        <f>H17</f>
+        <v>6.2635689379315256E-5</v>
+      </c>
+      <c r="D49" s="2">
+        <f>I17</f>
+        <v>5.3600139944715486E-7</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="13"/>
+        <v>3480712499313.2813</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="14"/>
+        <v>218016826.92568675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C50" s="2">
+        <f>H21</f>
+        <v>6.1587738773295785E-5</v>
+      </c>
+      <c r="D50" s="2">
+        <f>I21</f>
+        <v>1.8212478974757448E-6</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="13"/>
+        <v>301482337031.99976</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="14"/>
+        <v>18567615.417889521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C51" s="2">
+        <f>H22</f>
+        <v>6.243094820834299E-5</v>
+      </c>
+      <c r="D51" s="2">
+        <f>I22</f>
+        <v>8.1051932021401336E-7</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="13"/>
+        <v>1522205395487.9985</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="14"/>
+        <v>95032726.208171502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C52" s="2">
+        <f>H23</f>
+        <v>6.3472984126403611E-5</v>
+      </c>
+      <c r="D52" s="2">
+        <f>I23</f>
+        <v>4.2342534778303943E-7</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="13"/>
+        <v>5577586242048.0117</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="14"/>
+        <v>354026043.00516063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C53" s="2">
+        <f>H27</f>
+        <v>6.2746747984227357E-5</v>
+      </c>
+      <c r="D53" s="2">
+        <f>I27</f>
+        <v>1.5156686313865314E-6</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="13"/>
+        <v>435302814453.12482</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="14"/>
+        <v>27313835.995315105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C54" s="2">
+        <f>H28</f>
+        <v>6.2563727953273213E-5</v>
+      </c>
+      <c r="D54" s="2">
+        <f>I28</f>
+        <v>6.7496333954888084E-7</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="13"/>
+        <v>2195025805012.5005</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="14"/>
+        <v>137328997.3152166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C55" s="2">
+        <f>H29</f>
+        <v>6.3513922365340735E-5</v>
+      </c>
+      <c r="D55" s="2">
+        <f>I29</f>
+        <v>3.5263389770500829E-7</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="13"/>
+        <v>8041774392449.9854</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="14"/>
+        <v>510764634.44165355</v>
       </c>
     </row>
   </sheetData>
@@ -1302,19 +2288,2301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336A725-1A1C-4F2D-9234-A62E4BB6A2B9}">
+  <dimension ref="A1:S55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="8.7109375" style="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1">
+        <f>1/300000</f>
+        <v>3.3333333333333333E-6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(C3+D3)/2</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(E3,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>0,0180(14)</v>
+      </c>
+      <c r="H3" s="2">
+        <f>$J$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
+        <v>5.9050999438421715E-7</v>
+      </c>
+      <c r="I3" s="2">
+        <f>SQRT(($J$1*$C$1^2*$C$37/B3/(E3^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E3*$C$37/B3/(E3^2+$C$1^2)^1.5)^2)</f>
+        <v>4.566103455937926E-8</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(H3,RIGHT(TEXT(I3,"0,00E+00"),2)+1,TRUE),"(",LEFT(I3*10^LEN(I3),2),")")</f>
+        <v>0,000000591(45)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E11" si="0">(C4+D4)/2</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ref="F4:F5" si="1">_xlfn.CONCAT(FIXED(E4,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>0,0390(14)</v>
+      </c>
+      <c r="H4" s="2">
+        <f>$J$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
+        <v>6.0557546081940643E-7</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SQRT(($J$1*$C$1^2*$C$37/B4/(E4^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E4*$C$37/B4/(E4^2+$C$1^2)^1.5)^2)</f>
+        <v>2.0458489748764493E-8</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" ref="J4:J5" si="2">_xlfn.CONCAT(FIXED(H4,RIGHT(TEXT(I4,"0,00E+00"),2)+1,TRUE),"(",LEFT(I4*10^LEN(I4),2),")")</f>
+        <v>0,000000606(20)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0660(14)</v>
+      </c>
+      <c r="H5" s="2">
+        <f>$J$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
+        <v>6.1204689814526509E-7</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SQRT(($J$1*$C$1^2*$C$37/B5/(E5^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E5*$C$37/B5/(E5^2+$C$1^2)^1.5)^2)</f>
+        <v>1.0945586532716442E-8</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0,000000612(10)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" ref="F9:F29" si="3">_xlfn.CONCAT(FIXED(E9,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>0,0280(14)</v>
+      </c>
+      <c r="H9" s="2">
+        <f>$J$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
+        <v>6.1165704367628607E-7</v>
+      </c>
+      <c r="I9" s="2">
+        <f>SQRT(($J$1*$C$7^2*$C$37/B9/(E9^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E9*$C$37/B9/(E9^2+$C$7^2)^1.5)^2)</f>
+        <v>3.0368784624057185E-8</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" ref="J9:J29" si="4">_xlfn.CONCAT(FIXED(H9,RIGHT(TEXT(I9,"0,00E+00"),2)+1,TRUE),"(",LEFT(I9*10^LEN(I9),2),")")</f>
+        <v>0,000000612(30)</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0605(14)</v>
+      </c>
+      <c r="H10" s="2">
+        <f>$J$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
+        <v>6.2342351471836631E-7</v>
+      </c>
+      <c r="I10" s="2">
+        <f>SQRT(($J$1*$C$7^2*$C$37/B10/(E10^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E10*$C$37/B10/(E10^2+$C$7^2)^1.5)^2)</f>
+        <v>1.3514908710477683E-8</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,000000623(13)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999991E-2</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0995(14)</v>
+      </c>
+      <c r="H11" s="2">
+        <f>$J$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
+        <v>6.1419516128867084E-7</v>
+      </c>
+      <c r="I11" s="2">
+        <f>SQRT(($J$1*$C$7^2*$C$37/B11/(E11^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E11*$C$37/B11/(E11^2+$C$7^2)^1.5)^2)</f>
+        <v>7.2747049913354337E-9</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000006142(72)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15:E29" si="5">(C15+D15)/2</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" ref="F15" si="6">_xlfn.CONCAT(FIXED(E15,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>0,0380(14)</v>
+      </c>
+      <c r="H15" s="2">
+        <f>$J$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
+        <v>6.2220215274423388E-7</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SQRT(($J$1*$C$13^2*$C$37/B15/(E15^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E15*$C$37/B15/(E15^2+$C$13^2)^1.5)^2)</f>
+        <v>2.2748987587637852E-8</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" ref="J15" si="7">_xlfn.CONCAT(FIXED(H15,RIGHT(TEXT(I15,"0,00E+00"),2)+1,TRUE),"(",LEFT(I15*10^LEN(I15),2),")")</f>
+        <v>0,000000622(22)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="5"/>
+        <v>7.85E-2</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0785(14)</v>
+      </c>
+      <c r="H16" s="2">
+        <f>$J$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
+        <v>6.0894058768842842E-7</v>
+      </c>
+      <c r="I16" s="2">
+        <f>SQRT(($J$1*$C$13^2*$C$37/B16/(E16^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E16*$C$37/B16/(E16^2+$C$13^2)^1.5)^2)</f>
+        <v>1.021190519940063E-8</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,000000609(10)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,1365(14)</v>
+      </c>
+      <c r="H17" s="2">
+        <f>$J$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
+        <v>6.263568937931525E-7</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SQRT(($J$1*$C$13^2*$C$37/B17/(E17^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E17*$C$37/B17/(E17^2+$C$13^2)^1.5)^2)</f>
+        <v>5.3600139944715467E-9</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000006264(53)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="5"/>
+        <v>4.7E-2</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" ref="F21" si="8">_xlfn.CONCAT(FIXED(E21,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>0,0470(14)</v>
+      </c>
+      <c r="H21" s="2">
+        <f>$J$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
+        <v>6.1587738773295786E-7</v>
+      </c>
+      <c r="I21" s="2">
+        <f>SQRT(($J$1*$C$19^2*$C$37/B21/(E21^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E21*$C$37/B21/(E21^2+$C$19^2)^1.5)^2)</f>
+        <v>1.8212478974757437E-8</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" ref="J21" si="9">_xlfn.CONCAT(FIXED(H21,RIGHT(TEXT(I21,"0,00E+00"),2)+1,TRUE),"(",LEFT(I21*10^LEN(I21),2),")")</f>
+        <v>0,000000616(18)</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,1010(14)</v>
+      </c>
+      <c r="H22" s="2">
+        <f>$J$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
+        <v>6.2430948208342998E-7</v>
+      </c>
+      <c r="I22" s="2">
+        <f>SQRT(($J$1*$C$19^2*$C$37/B22/(E22^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E22*$C$37/B22/(E22^2+$C$19^2)^1.5)^2)</f>
+        <v>8.1051932021401288E-9</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000006243(81)</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,1740(14)</v>
+      </c>
+      <c r="H23" s="2">
+        <f>$J$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
+        <v>6.3472984126403613E-7</v>
+      </c>
+      <c r="I23" s="2">
+        <f>SQRT(($J$1*$C$19^2*$C$37/B23/(E23^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E23*$C$37/B23/(E23^2+$C$19^2)^1.5)^2)</f>
+        <v>4.2342534778303997E-9</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000006347(42)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27" si="10">(C27+D27)/2</f>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" ref="F27" si="11">_xlfn.CONCAT(FIXED(E27,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+        <v>0,0575(14)</v>
+      </c>
+      <c r="H27" s="2">
+        <f>$J$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
+        <v>6.2746747984227358E-7</v>
+      </c>
+      <c r="I27" s="2">
+        <f>SQRT(($J$1*$C$25^2*$C$37/B27/(E27^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E27*$C$37/B27/(E27^2+$C$25^2)^1.5)^2)</f>
+        <v>1.5156686313865316E-8</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" ref="J27" si="12">_xlfn.CONCAT(FIXED(H27,RIGHT(TEXT(I27,"0,00E+00"),2)+1,TRUE),"(",LEFT(I27*10^LEN(I27),2),")")</f>
+        <v>0,000000627(15)</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.12300000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1215</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,1215(14)</v>
+      </c>
+      <c r="H28" s="2">
+        <f>$J$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
+        <v>6.2563727953273217E-7</v>
+      </c>
+      <c r="I28" s="2">
+        <f>SQRT(($J$1*$C$25^2*$C$37/B28/(E28^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E28*$C$37/B28/(E28^2+$C$25^2)^1.5)^2)</f>
+        <v>6.7496333954888082E-9</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000006256(67)</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.21300000000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20900000000000002</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,2090(14)</v>
+      </c>
+      <c r="H29" s="2">
+        <f>$J$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
+        <v>6.351392236534074E-7</v>
+      </c>
+      <c r="I29" s="2">
+        <f>SQRT(($J$1*$C$25^2*$C$37/B29/(E29^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E29*$C$37/B29/(E29^2+$C$25^2)^1.5)^2)</f>
+        <v>3.52633897705008E-9</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0000006351(35)</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <f>(SQRT(2*B32^2))/2</f>
+        <v>1.414213562373095E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="2">
+        <f>H3</f>
+        <v>5.9050999438421715E-7</v>
+      </c>
+      <c r="D41" s="2">
+        <f>I3</f>
+        <v>4.566103455937926E-8</v>
+      </c>
+      <c r="E41" s="2">
+        <f>1/D41^2</f>
+        <v>479632392000000.38</v>
+      </c>
+      <c r="F41" s="2">
+        <f>C41*E41</f>
+        <v>283227721.10640883</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="10">
+        <f>SUM(F41:F55)/SUM(E41:E55)</f>
+        <v>6.2816330289970161E-7</v>
+      </c>
+      <c r="I41" s="10">
+        <f>SQRT(1/SUM(E41:E55))</f>
+        <v>1.9472312111602986E-9</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(H41,RIGHT(TEXT(I41,"0,00E+00"),2)+1,TRUE),"(",LEFT(I41*10^LEN(I41),2),")")</f>
+        <v>0,0000006282(19)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="2">
+        <f>H4</f>
+        <v>6.0557546081940643E-7</v>
+      </c>
+      <c r="D42" s="2">
+        <f>I4</f>
+        <v>2.0458489748764493E-8</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:E55" si="13">1/D42^2</f>
+        <v>2389201938000002.5</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" ref="F42:F55" si="14">C42*E42</f>
+        <v>1446842064.5949705</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="10">
+        <f>H41*10^9</f>
+        <v>628.16330289970165</v>
+      </c>
+      <c r="I42" s="10">
+        <f>I41*10^9</f>
+        <v>1.9472312111602985</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(H42,RIGHT(TEXT(I42,"0,00E+00"),2)+1,TRUE),"(",LEFT(I42*10^LEN(I42),2),")")</f>
+        <v>628,2(19)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="2">
+        <f>H5</f>
+        <v>6.1204689814526509E-7</v>
+      </c>
+      <c r="D43" s="2">
+        <f>I5</f>
+        <v>1.0945586532716442E-8</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="13"/>
+        <v>8346836807999998</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="14"/>
+        <v>5108655577.6611242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C44" s="2">
+        <f>H9</f>
+        <v>6.1165704367628607E-7</v>
+      </c>
+      <c r="D44" s="2">
+        <f>I9</f>
+        <v>3.0368784624057185E-8</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="13"/>
+        <v>1084289312000000.1</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="14"/>
+        <v>663213195.06771421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C45" s="2">
+        <f>H10</f>
+        <v>6.2342351471836631E-7</v>
+      </c>
+      <c r="D45" s="2">
+        <f>I10</f>
+        <v>1.3514908710477683E-8</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="13"/>
+        <v>5474869440499999</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="14"/>
+        <v>3413162349.220685</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C46" s="2">
+        <f>H11</f>
+        <v>6.1419516128867084E-7</v>
+      </c>
+      <c r="D46" s="2">
+        <f>I11</f>
+        <v>7.2747049913354337E-9</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="13"/>
+        <v>1.8895971601124992E+16</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="14"/>
+        <v>11605814325.259108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C47" s="2">
+        <f>H15</f>
+        <v>6.2220215274423388E-7</v>
+      </c>
+      <c r="D47" s="2">
+        <f>I15</f>
+        <v>2.2748987587637852E-8</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="13"/>
+        <v>1932305778000000.8</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="14"/>
+        <v>1202284814.8317223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C48" s="2">
+        <f>H16</f>
+        <v>6.0894058768842842E-7</v>
+      </c>
+      <c r="D48" s="2">
+        <f>I16</f>
+        <v>1.021190519940063E-8</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="13"/>
+        <v>9589289962781248</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="14"/>
+        <v>5839307865.4507608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C49" s="2">
+        <f>H17</f>
+        <v>6.263568937931525E-7</v>
+      </c>
+      <c r="D49" s="2">
+        <f>I17</f>
+        <v>5.3600139944715467E-9</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="13"/>
+        <v>3.480712499313284E+16</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="14"/>
+        <v>21801682692.568691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C50" s="2">
+        <f>H21</f>
+        <v>6.1587738773295786E-7</v>
+      </c>
+      <c r="D50" s="2">
+        <f>I21</f>
+        <v>1.8212478974757437E-8</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="13"/>
+        <v>3014823370320001</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="14"/>
+        <v>1856761541.788954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C51" s="2">
+        <f>H22</f>
+        <v>6.2430948208342998E-7</v>
+      </c>
+      <c r="D51" s="2">
+        <f>I22</f>
+        <v>8.1051932021401288E-9</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5222053954880006E+16</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="14"/>
+        <v>9503272620.8171635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C52" s="2">
+        <f>H23</f>
+        <v>6.3472984126403613E-7</v>
+      </c>
+      <c r="D52" s="2">
+        <f>I23</f>
+        <v>4.2342534778303997E-9</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="13"/>
+        <v>5.5775862420479976E+16</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="14"/>
+        <v>35402604300.515976</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C53" s="2">
+        <f>H27</f>
+        <v>6.2746747984227358E-7</v>
+      </c>
+      <c r="D53" s="2">
+        <f>I27</f>
+        <v>1.5156686313865316E-8</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="13"/>
+        <v>4353028144531246.5</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="14"/>
+        <v>2731383599.5315094</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C54" s="2">
+        <f>H28</f>
+        <v>6.2563727953273217E-7</v>
+      </c>
+      <c r="D54" s="2">
+        <f>I28</f>
+        <v>6.7496333954888082E-9</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1950258050125008E+16</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="14"/>
+        <v>13732899731.521664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C55" s="2">
+        <f>H29</f>
+        <v>6.351392236534074E-7</v>
+      </c>
+      <c r="D55" s="2">
+        <f>I29</f>
+        <v>3.52633897705008E-9</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="13"/>
+        <v>8.0417743924499968E+16</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="14"/>
+        <v>51076463444.165428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CDF426-B194-4AB3-A0A1-926BC53A9AC8}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="18" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>O2</f>
+        <v>Zapis λ w [nm]</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.9050999438421715E-7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.566103455937926E-8</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J29" si="0">O3</f>
+        <v>590,51(45)</v>
+      </c>
+      <c r="M3" s="2">
+        <f>H3*10^9</f>
+        <v>590.50999438421718</v>
+      </c>
+      <c r="N3" s="2">
+        <f>I3*10^9</f>
+        <v>45.66103455937926</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(M3,RIGHT(TEXT(N3,"0,00E+00"),2)+1,TRUE),"(",LEFT(N3*10^LEN(N3),2),")")</f>
+        <v>590,51(45)</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>5.9050999438421717E-5</v>
+      </c>
+      <c r="R3" s="10">
+        <v>4.5661034559379278E-6</v>
+      </c>
+      <c r="S3" s="10">
+        <v>47963239200.000008</v>
+      </c>
+      <c r="T3" s="10">
+        <v>2832277.2110640868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.0557546081940643E-7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.0458489748764493E-8</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>605,58(20)</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M5" si="1">H4*10^9</f>
+        <v>605.57546081940643</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N5" si="2">I4*10^9</f>
+        <v>20.458489748764492</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" ref="O4:O5" si="3">_xlfn.CONCAT(FIXED(M4,RIGHT(TEXT(N4,"0,00E+00"),2)+1,TRUE),"(",LEFT(N4*10^LEN(N4),2),")")</f>
+        <v>605,58(20)</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>6.0557546081940649E-5</v>
+      </c>
+      <c r="R4" s="10">
+        <v>2.0458489748764499E-6</v>
+      </c>
+      <c r="S4" s="10">
+        <v>238920193800.00006</v>
+      </c>
+      <c r="T4" s="10">
+        <v>14468420.645949693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.1204689814526509E-7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.0945586532716442E-8</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>612,05(10)</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>612.04689814526512</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="2"/>
+        <v>10.945586532716442</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>612,05(10)</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>6.1204689814526496E-5</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1.0945586532716436E-6</v>
+      </c>
+      <c r="S5" s="10">
+        <v>834683680800.00073</v>
+      </c>
+      <c r="T5" s="10">
+        <v>51086555.776611291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="Q6" s="10">
+        <v>6.116570436762861E-5</v>
+      </c>
+      <c r="R6" s="10">
+        <v>3.0368784624057204E-6</v>
+      </c>
+      <c r="S6" s="10">
+        <v>108428931199.99986</v>
+      </c>
+      <c r="T6" s="10">
+        <v>6632131.9506771341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="Q7" s="10">
+        <v>6.2342351471836627E-5</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1.3514908710477694E-6</v>
+      </c>
+      <c r="S7" s="10">
+        <v>547486944049.99896</v>
+      </c>
+      <c r="T7" s="10">
+        <v>34131623.49220679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Zapis λ w [nm]</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>6.1419516128867078E-5</v>
+      </c>
+      <c r="R8" s="10">
+        <v>7.274704991335439E-7</v>
+      </c>
+      <c r="S8" s="10">
+        <v>1889597160112.4966</v>
+      </c>
+      <c r="T8" s="10">
+        <v>116058143.25259091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6.1165704367628607E-7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.0368784624057185E-8</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>611,66(30)</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ref="M9:M29" si="4">H9*10^9</f>
+        <v>611.65704367628609</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9:N29" si="5">I9*10^9</f>
+        <v>30.368784624057184</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" ref="O9:O29" si="6">_xlfn.CONCAT(FIXED(M9,RIGHT(TEXT(N9,"0,00E+00"),2)+1,TRUE),"(",LEFT(N9*10^LEN(N9),2),")")</f>
+        <v>611,66(30)</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>6.2220215274423393E-5</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2.2748987587637857E-6</v>
+      </c>
+      <c r="S9" s="10">
+        <v>193230577800.00003</v>
+      </c>
+      <c r="T9" s="10">
+        <v>12022848.14831722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6.2342351471836631E-7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.3514908710477683E-8</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>623,42(13)</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="4"/>
+        <v>623.42351471836628</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="5"/>
+        <v>13.514908710477682</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>623,42(13)</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>6.0894058768842837E-5</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1.0211905199400624E-6</v>
+      </c>
+      <c r="S10" s="10">
+        <v>958928996278.12573</v>
+      </c>
+      <c r="T10" s="10">
+        <v>58393078.654507659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.9499999999999991E-2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.1419516128867084E-7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7.2747049913354337E-9</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>614,2(72)</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="4"/>
+        <v>614.19516128867087</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="5"/>
+        <v>7.274704991335434</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>614,2(72)</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>6.2635689379315256E-5</v>
+      </c>
+      <c r="R11" s="10">
+        <v>5.3600139944715486E-7</v>
+      </c>
+      <c r="S11" s="10">
+        <v>3480712499313.2813</v>
+      </c>
+      <c r="T11" s="10">
+        <v>218016826.92568675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="Q12" s="10">
+        <v>6.1587738773295785E-5</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1.8212478974757448E-6</v>
+      </c>
+      <c r="S12" s="10">
+        <v>301482337031.99976</v>
+      </c>
+      <c r="T12" s="10">
+        <v>18567615.417889521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="Q13" s="10">
+        <v>6.243094820834299E-5</v>
+      </c>
+      <c r="R13" s="10">
+        <v>8.1051932021401336E-7</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1522205395487.9985</v>
+      </c>
+      <c r="T13" s="10">
+        <v>95032726.208171502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Zapis λ w [nm]</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>6.3472984126403611E-5</v>
+      </c>
+      <c r="R14" s="10">
+        <v>4.2342534778303943E-7</v>
+      </c>
+      <c r="S14" s="10">
+        <v>5577586242048.0117</v>
+      </c>
+      <c r="T14" s="10">
+        <v>354026043.00516063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6.2220215274423388E-7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.2748987587637852E-8</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>622,20(22)</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:M29" si="7">H15*10^9</f>
+        <v>622.2021527442339</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15:N29" si="8">I15*10^9</f>
+        <v>22.748987587637853</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" ref="O15" si="9">_xlfn.CONCAT(FIXED(M15,RIGHT(TEXT(N15,"0,00E+00"),2)+1,TRUE),"(",LEFT(N15*10^LEN(N15),2),")")</f>
+        <v>622,20(22)</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>6.2746747984227357E-5</v>
+      </c>
+      <c r="R15" s="10">
+        <v>1.5156686313865314E-6</v>
+      </c>
+      <c r="S15" s="10">
+        <v>435302814453.12482</v>
+      </c>
+      <c r="T15" s="10">
+        <v>27313835.995315105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7.85E-2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.0894058768842842E-7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.021190519940063E-8</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>608,94(10)</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="7"/>
+        <v>608.94058768842842</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="8"/>
+        <v>10.211905199400631</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>608,94(10)</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>6.2563727953273213E-5</v>
+      </c>
+      <c r="R16" s="10">
+        <v>6.7496333954888084E-7</v>
+      </c>
+      <c r="S16" s="10">
+        <v>2195025805012.5005</v>
+      </c>
+      <c r="T16" s="10">
+        <v>137328997.3152166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6.263568937931525E-7</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5.3600139944715467E-9</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>626,4(53)</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="7"/>
+        <v>626.35689379315249</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="8"/>
+        <v>5.3600139944715464</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>626,4(53)</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>6.3513922365340735E-5</v>
+      </c>
+      <c r="R17" s="10">
+        <v>3.5263389770500829E-7</v>
+      </c>
+      <c r="S17" s="10">
+        <v>8041774392449.9854</v>
+      </c>
+      <c r="T17" s="10">
+        <v>510764634.44165355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Zapis λ w [nm]</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6.1587738773295786E-7</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.8212478974757437E-8</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>615,88(18)</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ref="M21:M29" si="10">H21*10^9</f>
+        <v>615.87738773295791</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21:N29" si="11">I21*10^9</f>
+        <v>18.212478974757438</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" ref="O21" si="12">_xlfn.CONCAT(FIXED(M21,RIGHT(TEXT(N21,"0,00E+00"),2)+1,TRUE),"(",LEFT(N21*10^LEN(N21),2),")")</f>
+        <v>615,88(18)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6.2430948208342998E-7</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8.1051932021401288E-9</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>624,3(81)</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="10"/>
+        <v>624.30948208343</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="11"/>
+        <v>8.1051932021401285</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>624,3(81)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6.3472984126403613E-7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4.2342534778303997E-9</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>634,7(42)</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="10"/>
+        <v>634.72984126403617</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="11"/>
+        <v>4.2342534778304</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>634,7(42)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Zapis λ w [nm]</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6.2746747984227358E-7</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.5156686313865316E-8</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>627,47(15)</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27:M29" si="13">H27*10^9</f>
+        <v>627.46747984227363</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ref="N27:N29" si="14">I27*10^9</f>
+        <v>15.156686313865317</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" ref="O27" si="15">_xlfn.CONCAT(FIXED(M27,RIGHT(TEXT(N27,"0,00E+00"),2)+1,TRUE),"(",LEFT(N27*10^LEN(N27),2),")")</f>
+        <v>627,47(15)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.12300000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.1215</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6.2563727953273217E-7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6.7496333954888082E-9</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>625,6(67)</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="13"/>
+        <v>625.63727953273212</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="14"/>
+        <v>6.7496333954888081</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>625,6(67)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.21300000000000002</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.20900000000000002</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6.351392236534074E-7</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3.52633897705008E-9</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>635,1(35)</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="13"/>
+        <v>635.13922365340738</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="14"/>
+        <v>3.5263389770500799</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>635,1(35)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +4603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1377,7 +4645,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1399,7 +4667,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1421,7 +4689,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +4710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1484,7 +4752,7 @@
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -1506,7 +4774,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -1528,7 +4796,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +4817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1591,7 +4859,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -1613,7 +4881,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -1635,7 +4903,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +4924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -1698,7 +4966,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1720,7 +4988,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1742,7 +5010,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +5031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -1805,7 +5073,7 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -1827,7 +5095,7 @@
         <v>0.12300000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>3</v>
       </c>

--- a/6/6tka.xlsx
+++ b/6/6tka.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2871F-4850-43DD-B099-2ED30752130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C8347F-59A1-4347-B955-51DC69AB5B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania w cm" sheetId="5" r:id="rId1"/>
     <sheet name="Zadania w m" sheetId="3" r:id="rId2"/>
-    <sheet name="temp" sheetId="4" r:id="rId3"/>
-    <sheet name="Pomiar" sheetId="1" r:id="rId4"/>
+    <sheet name="Pomiar" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="30">
   <si>
     <t>xr</t>
   </si>
@@ -128,66 +127,6 @@
     <t>cm:</t>
   </si>
   <si>
-    <t>1,80(14)</t>
-  </si>
-  <si>
-    <t>3,90(14)</t>
-  </si>
-  <si>
-    <t>6,60(14)</t>
-  </si>
-  <si>
-    <t>2,80(14)</t>
-  </si>
-  <si>
-    <t>6,05(14)</t>
-  </si>
-  <si>
-    <t>9,95(14)</t>
-  </si>
-  <si>
-    <t>3,80(14)</t>
-  </si>
-  <si>
-    <t>7,85(14)</t>
-  </si>
-  <si>
-    <t>13,65(14)</t>
-  </si>
-  <si>
-    <t>4,70(14)</t>
-  </si>
-  <si>
-    <t>10,10(14)</t>
-  </si>
-  <si>
-    <t>17,40(14)</t>
-  </si>
-  <si>
-    <t>5,75(14)</t>
-  </si>
-  <si>
-    <t>12,15(14)</t>
-  </si>
-  <si>
-    <t>20,90(14)</t>
-  </si>
-  <si>
-    <t>Zapis xn [cm]</t>
-  </si>
-  <si>
-    <t>[m]</t>
-  </si>
-  <si>
-    <t>Zapis λ w [nm]</t>
-  </si>
-  <si>
-    <t>Zapis xn w [cm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L = </t>
-  </si>
-  <si>
     <t>Jednostka</t>
   </si>
 </sst>
@@ -197,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +151,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,19 +213,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1119,30 +1045,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7F5E49-8A1C-4415-AA0A-63BEE195A981}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:F55"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="1"/>
-    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="8.7109375" style="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="8.7265625" style="1"/>
+    <col min="21" max="21" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1092,7 @@
         <v>3.3333333333333332E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1223,7 +1149,7 @@
         <v>0,0000591(45)</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1254,7 +1180,7 @@
         <v>0,0000606(20)</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1285,7 +1211,7 @@
         <v>0,0000612(10)</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1356,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -1387,7 +1313,7 @@
         <v>0,0000623(13)</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -1418,7 +1344,7 @@
         <v>0,00006142(72)</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1486,7 +1412,7 @@
         <v>0,0000622(22)</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -1517,7 +1443,7 @@
         <v>0,0000609(10)</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -1548,7 +1474,7 @@
         <v>0,00006264(53)</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1560,7 +1486,7 @@
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -1621,7 +1547,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1657,7 +1583,7 @@
       <c r="O22" s="4"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1688,13 +1614,13 @@
         <v>0,00006347(42)</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1635,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +1661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -1769,7 +1695,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -1803,7 +1729,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>3</v>
       </c>
@@ -1834,17 +1760,17 @@
         <v>0,00006351(35)</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +1779,7 @@
         <v>0.14142135623730953</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1864,7 +1790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -1898,11 +1824,11 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="2">
-        <f>H3</f>
+        <f t="shared" ref="C41:D43" si="13">H3</f>
         <v>5.9050999438421717E-5</v>
       </c>
       <c r="D41" s="2">
-        <f>I3</f>
+        <f t="shared" si="13"/>
         <v>4.5661034559379278E-6</v>
       </c>
       <c r="E41" s="2">
@@ -1929,7 +1855,7 @@
         <v>0,00006282(19)</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>2</v>
       </c>
@@ -1937,19 +1863,19 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="2">
-        <f>H4</f>
+        <f t="shared" si="13"/>
         <v>6.0557546081940649E-5</v>
       </c>
       <c r="D42" s="2">
-        <f>I4</f>
+        <f t="shared" si="13"/>
         <v>2.0458489748764499E-6</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:E55" si="13">1/D42^2</f>
+        <f t="shared" ref="E42:E55" si="14">1/D42^2</f>
         <v>238920193800.00006</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" ref="F42:F55" si="14">C42*E42</f>
+        <f t="shared" ref="F42:F55" si="15">C42*E42</f>
         <v>14468420.645949693</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -1968,7 +1894,7 @@
         <v>628,2(19)</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>3</v>
       </c>
@@ -1976,23 +1902,23 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="2">
-        <f>H5</f>
+        <f t="shared" si="13"/>
         <v>6.1204689814526496E-5</v>
       </c>
       <c r="D43" s="2">
-        <f>I5</f>
+        <f t="shared" si="13"/>
         <v>1.0945586532716436E-6</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>834683680800.00073</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51086555.776611291</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -2000,23 +1926,23 @@
         <v>0.15</v>
       </c>
       <c r="C44" s="2">
-        <f>H9</f>
+        <f t="shared" ref="C44:D46" si="16">H9</f>
         <v>6.116570436762861E-5</v>
       </c>
       <c r="D44" s="2">
-        <f>I9</f>
+        <f t="shared" si="16"/>
         <v>3.0368784624057204E-6</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>108428931199.99986</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6632131.9506771341</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>2</v>
       </c>
@@ -2024,23 +1950,23 @@
         <v>0.15</v>
       </c>
       <c r="C45" s="2">
-        <f>H10</f>
+        <f t="shared" si="16"/>
         <v>6.2342351471836627E-5</v>
       </c>
       <c r="D45" s="2">
-        <f>I10</f>
+        <f t="shared" si="16"/>
         <v>1.3514908710477694E-6</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>547486944049.99896</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34131623.49220679</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>3</v>
       </c>
@@ -2048,23 +1974,23 @@
         <v>0.15</v>
       </c>
       <c r="C46" s="2">
-        <f>H11</f>
+        <f t="shared" si="16"/>
         <v>6.1419516128867078E-5</v>
       </c>
       <c r="D46" s="2">
-        <f>I11</f>
+        <f t="shared" si="16"/>
         <v>7.274704991335439E-7</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1889597160112.4966</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>116058143.25259091</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>1</v>
       </c>
@@ -2072,23 +1998,23 @@
         <v>0.2</v>
       </c>
       <c r="C47" s="2">
-        <f>H15</f>
+        <f t="shared" ref="C47:D49" si="17">H15</f>
         <v>6.2220215274423393E-5</v>
       </c>
       <c r="D47" s="2">
-        <f>I15</f>
+        <f t="shared" si="17"/>
         <v>2.2748987587637857E-6</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>193230577800.00003</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12022848.14831722</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>2</v>
       </c>
@@ -2096,23 +2022,23 @@
         <v>0.2</v>
       </c>
       <c r="C48" s="2">
-        <f>H16</f>
+        <f t="shared" si="17"/>
         <v>6.0894058768842837E-5</v>
       </c>
       <c r="D48" s="2">
-        <f>I16</f>
+        <f t="shared" si="17"/>
         <v>1.0211905199400624E-6</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>958928996278.12573</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>58393078.654507659</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>3</v>
       </c>
@@ -2120,23 +2046,23 @@
         <v>0.2</v>
       </c>
       <c r="C49" s="2">
-        <f>H17</f>
+        <f t="shared" si="17"/>
         <v>6.2635689379315256E-5</v>
       </c>
       <c r="D49" s="2">
-        <f>I17</f>
+        <f t="shared" si="17"/>
         <v>5.3600139944715486E-7</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3480712499313.2813</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>218016826.92568675</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -2144,23 +2070,23 @@
         <v>0.25</v>
       </c>
       <c r="C50" s="2">
-        <f>H21</f>
+        <f t="shared" ref="C50:D52" si="18">H21</f>
         <v>6.1587738773295785E-5</v>
       </c>
       <c r="D50" s="2">
-        <f>I21</f>
+        <f t="shared" si="18"/>
         <v>1.8212478974757448E-6</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>301482337031.99976</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18567615.417889521</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>2</v>
       </c>
@@ -2168,23 +2094,23 @@
         <v>0.25</v>
       </c>
       <c r="C51" s="2">
-        <f>H22</f>
+        <f t="shared" si="18"/>
         <v>6.243094820834299E-5</v>
       </c>
       <c r="D51" s="2">
-        <f>I22</f>
+        <f t="shared" si="18"/>
         <v>8.1051932021401336E-7</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1522205395487.9985</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>95032726.208171502</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>3</v>
       </c>
@@ -2192,23 +2118,23 @@
         <v>0.25</v>
       </c>
       <c r="C52" s="2">
-        <f>H23</f>
+        <f t="shared" si="18"/>
         <v>6.3472984126403611E-5</v>
       </c>
       <c r="D52" s="2">
-        <f>I23</f>
+        <f t="shared" si="18"/>
         <v>4.2342534778303943E-7</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5577586242048.0117</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>354026043.00516063</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>1</v>
       </c>
@@ -2216,23 +2142,23 @@
         <v>0.3</v>
       </c>
       <c r="C53" s="2">
-        <f>H27</f>
+        <f t="shared" ref="C53:D55" si="19">H27</f>
         <v>6.2746747984227357E-5</v>
       </c>
       <c r="D53" s="2">
-        <f>I27</f>
+        <f t="shared" si="19"/>
         <v>1.5156686313865314E-6</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>435302814453.12482</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27313835.995315105</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>2</v>
       </c>
@@ -2240,23 +2166,23 @@
         <v>0.3</v>
       </c>
       <c r="C54" s="2">
-        <f>H28</f>
+        <f t="shared" si="19"/>
         <v>6.2563727953273213E-5</v>
       </c>
       <c r="D54" s="2">
-        <f>I28</f>
+        <f t="shared" si="19"/>
         <v>6.7496333954888084E-7</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2195025805012.5005</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>137328997.3152166</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>3</v>
       </c>
@@ -2264,19 +2190,19 @@
         <v>0.3</v>
       </c>
       <c r="C55" s="2">
-        <f>H29</f>
+        <f t="shared" si="19"/>
         <v>6.3513922365340735E-5</v>
       </c>
       <c r="D55" s="2">
-        <f>I29</f>
+        <f t="shared" si="19"/>
         <v>3.5263389770500829E-7</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8041774392449.9854</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>510764634.44165355</v>
       </c>
     </row>
@@ -2291,39 +2217,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336A725-1A1C-4F2D-9234-A62E4BB6A2B9}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="1"/>
-    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="8.7109375" style="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="8.7265625" style="1"/>
+    <col min="21" max="21" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2338,7 +2262,7 @@
         <v>3.3333333333333333E-6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2364,111 +2288,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.8000000000000002E-2</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
         <f>(C3+D3)/2</f>
-        <v>1.8000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(E3,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>0,0180(14)</v>
-      </c>
-      <c r="H3" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H3" s="2" t="e">
         <f>$J$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
-        <v>5.9050999438421715E-7</v>
-      </c>
-      <c r="I3" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="2" t="e">
         <f>SQRT(($J$1*$C$1^2*$C$37/B3/(E3^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E3*$C$37/B3/(E3^2+$C$1^2)^1.5)^2)</f>
-        <v>4.566103455937926E-8</v>
-      </c>
-      <c r="J3" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="2" t="e">
         <f>_xlfn.CONCAT(FIXED(H3,RIGHT(TEXT(I3,"0,00E+00"),2)+1,TRUE),"(",LEFT(I3*10^LEN(I3),2),")")</f>
-        <v>0,000000591(45)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.9E-2</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E11" si="0">(C4+D4)/2</f>
-        <v>3.9E-2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ref="F4:F5" si="1">_xlfn.CONCAT(FIXED(E4,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>0,0390(14)</v>
-      </c>
-      <c r="H4" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H4" s="2" t="e">
         <f>$J$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
-        <v>6.0557546081940643E-7</v>
-      </c>
-      <c r="I4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="2" t="e">
         <f>SQRT(($J$1*$C$1^2*$C$37/B4/(E4^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E4*$C$37/B4/(E4^2+$C$1^2)^1.5)^2)</f>
-        <v>2.0458489748764493E-8</v>
-      </c>
-      <c r="J4" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="2" t="e">
         <f t="shared" ref="J4:J5" si="2">_xlfn.CONCAT(FIXED(H4,RIGHT(TEXT(I4,"0,00E+00"),2)+1,TRUE),"(",LEFT(I4*10^LEN(I4),2),")")</f>
-        <v>0,000000606(20)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>6.6000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0,0660(14)</v>
-      </c>
-      <c r="H5" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H5" s="2" t="e">
         <f>$J$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
-        <v>6.1204689814526509E-7</v>
-      </c>
-      <c r="I5" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="2" t="e">
         <f>SQRT(($J$1*$C$1^2*$C$37/B5/(E5^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E5*$C$37/B5/(E5^2+$C$1^2)^1.5)^2)</f>
-        <v>1.0945586532716442E-8</v>
-      </c>
-      <c r="J5" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>0,000000612(10)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.15</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2494,114 +2404,100 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.7999999999999997E-2</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>2.7999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ref="F9:F29" si="3">_xlfn.CONCAT(FIXED(E9,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>0,0280(14)</v>
-      </c>
-      <c r="H9" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H9" s="2" t="e">
         <f>$J$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
-        <v>6.1165704367628607E-7</v>
-      </c>
-      <c r="I9" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="2" t="e">
         <f>SQRT(($J$1*$C$7^2*$C$37/B9/(E9^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E9*$C$37/B9/(E9^2+$C$7^2)^1.5)^2)</f>
-        <v>3.0368784624057185E-8</v>
-      </c>
-      <c r="J9" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="2" t="e">
         <f t="shared" ref="J9:J29" si="4">_xlfn.CONCAT(FIXED(H9,RIGHT(TEXT(I9,"0,00E+00"),2)+1,TRUE),"(",LEFT(I9*10^LEN(I9),2),")")</f>
-        <v>0,000000612(30)</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.06</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>6.0499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,0605(14)</v>
-      </c>
-      <c r="H10" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H10" s="2" t="e">
         <f>$J$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
-        <v>6.2342351471836631E-7</v>
-      </c>
-      <c r="I10" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="2" t="e">
         <f>SQRT(($J$1*$C$7^2*$C$37/B10/(E10^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E10*$C$37/B10/(E10^2+$C$7^2)^1.5)^2)</f>
-        <v>1.3514908710477683E-8</v>
-      </c>
-      <c r="J10" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,000000623(13)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
-        <v>9.6999999999999989E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.10199999999999999</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>9.9499999999999991E-2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,0995(14)</v>
-      </c>
-      <c r="H11" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H11" s="2" t="e">
         <f>$J$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
-        <v>6.1419516128867084E-7</v>
-      </c>
-      <c r="I11" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="2" t="e">
         <f>SQRT(($J$1*$C$7^2*$C$37/B11/(E11^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E11*$C$37/B11/(E11^2+$C$7^2)^1.5)^2)</f>
-        <v>7.2747049913354337E-9</v>
-      </c>
-      <c r="J11" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,0000006142(72)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2627,112 +2523,98 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E29" si="5">(C15+D15)/2</f>
-        <v>3.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" ref="F15" si="6">_xlfn.CONCAT(FIXED(E15,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>0,0380(14)</v>
-      </c>
-      <c r="H15" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H15" s="2" t="e">
         <f>$J$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
-        <v>6.2220215274423388E-7</v>
-      </c>
-      <c r="I15" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="2" t="e">
         <f>SQRT(($J$1*$C$13^2*$C$37/B15/(E15^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E15*$C$37/B15/(E15^2+$C$13^2)^1.5)^2)</f>
-        <v>2.2748987587637852E-8</v>
-      </c>
-      <c r="J15" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="2" t="e">
         <f t="shared" ref="J15" si="7">_xlfn.CONCAT(FIXED(H15,RIGHT(TEXT(I15,"0,00E+00"),2)+1,TRUE),"(",LEFT(I15*10^LEN(I15),2),")")</f>
-        <v>0,000000622(22)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2">
         <f t="shared" si="5"/>
-        <v>7.85E-2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,0785(14)</v>
-      </c>
-      <c r="H16" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H16" s="2" t="e">
         <f>$J$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
-        <v>6.0894058768842842E-7</v>
-      </c>
-      <c r="I16" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="2" t="e">
         <f>SQRT(($J$1*$C$13^2*$C$37/B16/(E16^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E16*$C$37/B16/(E16^2+$C$13^2)^1.5)^2)</f>
-        <v>1.021190519940063E-8</v>
-      </c>
-      <c r="J16" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,000000609(10)</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.13900000000000001</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2">
         <f t="shared" si="5"/>
-        <v>0.13650000000000001</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1365(14)</v>
-      </c>
-      <c r="H17" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H17" s="2" t="e">
         <f>$J$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
-        <v>6.263568937931525E-7</v>
-      </c>
-      <c r="I17" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="2" t="e">
         <f>SQRT(($J$1*$C$13^2*$C$37/B17/(E17^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E17*$C$37/B17/(E17^2+$C$13^2)^1.5)^2)</f>
-        <v>5.3600139944715467E-9</v>
-      </c>
-      <c r="J17" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,0000006264(53)</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -2758,70 +2640,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4.7E-2</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>4.7E-2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ref="F21" si="8">_xlfn.CONCAT(FIXED(E21,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>0,0470(14)</v>
-      </c>
-      <c r="H21" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H21" s="2" t="e">
         <f>$J$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
-        <v>6.1587738773295786E-7</v>
-      </c>
-      <c r="I21" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="2" t="e">
         <f>SQRT(($J$1*$C$19^2*$C$37/B21/(E21^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E21*$C$37/B21/(E21^2+$C$19^2)^1.5)^2)</f>
-        <v>1.8212478974757437E-8</v>
-      </c>
-      <c r="J21" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="2" t="e">
         <f t="shared" ref="J21" si="9">_xlfn.CONCAT(FIXED(H21,RIGHT(TEXT(I21,"0,00E+00"),2)+1,TRUE),"(",LEFT(I21*10^LEN(I21),2),")")</f>
-        <v>0,000000616(18)</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2">
         <f t="shared" si="5"/>
-        <v>0.10100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1010(14)</v>
-      </c>
-      <c r="H22" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H22" s="2" t="e">
         <f>$J$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
-        <v>6.2430948208342998E-7</v>
-      </c>
-      <c r="I22" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="2" t="e">
         <f>SQRT(($J$1*$C$19^2*$C$37/B22/(E22^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E22*$C$37/B22/(E22^2+$C$19^2)^1.5)^2)</f>
-        <v>8.1051932021401288E-9</v>
-      </c>
-      <c r="J22" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,0000006243(81)</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2829,50 +2703,44 @@
       <c r="O22" s="4"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.17399999999999999</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>0.17399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1740(14)</v>
-      </c>
-      <c r="H23" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H23" s="2" t="e">
         <f>$J$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
-        <v>6.3472984126403613E-7</v>
-      </c>
-      <c r="I23" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="2" t="e">
         <f>SQRT(($J$1*$C$19^2*$C$37/B23/(E23^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E23*$C$37/B23/(E23^2+$C$19^2)^1.5)^2)</f>
-        <v>4.2342534778303997E-9</v>
-      </c>
-      <c r="J23" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,0000006347(42)</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2881,7 +2749,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2907,116 +2775,104 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5.7999999999999996E-2</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2">
         <f t="shared" ref="E27" si="10">(C27+D27)/2</f>
-        <v>5.7499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ref="F27" si="11">_xlfn.CONCAT(FIXED(E27,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>0,0575(14)</v>
-      </c>
-      <c r="H27" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H27" s="2" t="e">
         <f>$J$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
-        <v>6.2746747984227358E-7</v>
-      </c>
-      <c r="I27" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="2" t="e">
         <f>SQRT(($J$1*$C$25^2*$C$37/B27/(E27^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E27*$C$37/B27/(E27^2+$C$25^2)^1.5)^2)</f>
-        <v>1.5156686313865316E-8</v>
-      </c>
-      <c r="J27" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="2" t="e">
         <f t="shared" ref="J27" si="12">_xlfn.CONCAT(FIXED(H27,RIGHT(TEXT(I27,"0,00E+00"),2)+1,TRUE),"(",LEFT(I27*10^LEN(I27),2),")")</f>
-        <v>0,000000627(15)</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.12300000000000001</v>
-      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2">
         <f t="shared" si="5"/>
-        <v>0.1215</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,1215(14)</v>
-      </c>
-      <c r="H28" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H28" s="2" t="e">
         <f>$J$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
-        <v>6.2563727953273217E-7</v>
-      </c>
-      <c r="I28" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="2" t="e">
         <f>SQRT(($J$1*$C$25^2*$C$37/B28/(E28^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E28*$C$37/B28/(E28^2+$C$25^2)^1.5)^2)</f>
-        <v>6.7496333954888082E-9</v>
-      </c>
-      <c r="J28" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,0000006256(67)</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>3</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.21300000000000002</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2">
         <f t="shared" si="5"/>
-        <v>0.20900000000000002</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0,2090(14)</v>
-      </c>
-      <c r="H29" s="2">
+        <v>0,0000(14)</v>
+      </c>
+      <c r="H29" s="2" t="e">
         <f>$J$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
-        <v>6.351392236534074E-7</v>
-      </c>
-      <c r="I29" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="2" t="e">
         <f>SQRT(($J$1*$C$25^2*$C$37/B29/(E29^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E29*$C$37/B29/(E29^2+$C$25^2)^1.5)^2)</f>
-        <v>3.52633897705008E-9</v>
-      </c>
-      <c r="J29" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>0,0000006351(35)</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -3025,7 +2881,7 @@
         <v>1.414213562373095E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
@@ -3036,7 +2892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
@@ -3053,7 +2909,7 @@
         <v>17</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>19</v>
@@ -3065,394 +2921,394 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>1</v>
       </c>
       <c r="B41" s="2">
         <v>0.1</v>
       </c>
-      <c r="C41" s="2">
-        <f>H3</f>
-        <v>5.9050999438421715E-7</v>
-      </c>
-      <c r="D41" s="2">
-        <f>I3</f>
-        <v>4.566103455937926E-8</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="C41" s="2" t="e">
+        <f t="shared" ref="C41:D43" si="13">H3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" s="2" t="e">
         <f>1/D41^2</f>
-        <v>479632392000000.38</v>
-      </c>
-      <c r="F41" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="2" t="e">
         <f>C41*E41</f>
-        <v>283227721.10640883</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8" t="e">
         <f>SUM(F41:F55)/SUM(E41:E55)</f>
-        <v>6.2816330289970161E-7</v>
-      </c>
-      <c r="I41" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="8" t="e">
         <f>SQRT(1/SUM(E41:E55))</f>
-        <v>1.9472312111602986E-9</v>
-      </c>
-      <c r="J41" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="2" t="e">
         <f>_xlfn.CONCAT(FIXED(H41,RIGHT(TEXT(I41,"0,00E+00"),2)+1,TRUE),"(",LEFT(I41*10^LEN(I41),2),")")</f>
-        <v>0,0000006282(19)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>2</v>
       </c>
       <c r="B42" s="2">
         <v>0.1</v>
       </c>
-      <c r="C42" s="2">
-        <f>H4</f>
-        <v>6.0557546081940643E-7</v>
-      </c>
-      <c r="D42" s="2">
-        <f>I4</f>
-        <v>2.0458489748764493E-8</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" ref="E42:E55" si="13">1/D42^2</f>
-        <v>2389201938000002.5</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" ref="F42:F55" si="14">C42*E42</f>
-        <v>1446842064.5949705</v>
+      <c r="C42" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="2" t="e">
+        <f t="shared" ref="E42:E55" si="14">1/D42^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="2" t="e">
+        <f t="shared" ref="F42:F55" si="15">C42*E42</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="8" t="e">
         <f>H41*10^9</f>
-        <v>628.16330289970165</v>
-      </c>
-      <c r="I42" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="8" t="e">
         <f>I41*10^9</f>
-        <v>1.9472312111602985</v>
-      </c>
-      <c r="J42" s="2" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="2" t="e">
         <f>_xlfn.CONCAT(FIXED(H42,RIGHT(TEXT(I42,"0,00E+00"),2)+1,TRUE),"(",LEFT(I42*10^LEN(I42),2),")")</f>
-        <v>628,2(19)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>3</v>
       </c>
       <c r="B43" s="2">
         <v>0.1</v>
       </c>
-      <c r="C43" s="2">
-        <f>H5</f>
-        <v>6.1204689814526509E-7</v>
-      </c>
-      <c r="D43" s="2">
-        <f>I5</f>
-        <v>1.0945586532716442E-8</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="C43" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>8346836807999998</v>
-      </c>
-      <c r="F43" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>5108655577.6611242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>1</v>
       </c>
       <c r="B44" s="2">
         <v>0.15</v>
       </c>
-      <c r="C44" s="2">
-        <f>H9</f>
-        <v>6.1165704367628607E-7</v>
-      </c>
-      <c r="D44" s="2">
-        <f>I9</f>
-        <v>3.0368784624057185E-8</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="13"/>
-        <v>1084289312000000.1</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="C44" s="2" t="e">
+        <f t="shared" ref="C44:D46" si="16">H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>663213195.06771421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>2</v>
       </c>
       <c r="B45" s="2">
         <v>0.15</v>
       </c>
-      <c r="C45" s="2">
-        <f>H10</f>
-        <v>6.2342351471836631E-7</v>
-      </c>
-      <c r="D45" s="2">
-        <f>I10</f>
-        <v>1.3514908710477683E-8</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="13"/>
-        <v>5474869440499999</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="C45" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>3413162349.220685</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>3</v>
       </c>
       <c r="B46" s="2">
         <v>0.15</v>
       </c>
-      <c r="C46" s="2">
-        <f>H11</f>
-        <v>6.1419516128867084E-7</v>
-      </c>
-      <c r="D46" s="2">
-        <f>I11</f>
-        <v>7.2747049913354337E-9</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="13"/>
-        <v>1.8895971601124992E+16</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="C46" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="2" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>11605814325.259108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>1</v>
       </c>
       <c r="B47" s="2">
         <v>0.2</v>
       </c>
-      <c r="C47" s="2">
-        <f>H15</f>
-        <v>6.2220215274423388E-7</v>
-      </c>
-      <c r="D47" s="2">
-        <f>I15</f>
-        <v>2.2748987587637852E-8</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="13"/>
-        <v>1932305778000000.8</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="C47" s="2" t="e">
+        <f t="shared" ref="C47:D49" si="17">H15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>1202284814.8317223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>2</v>
       </c>
       <c r="B48" s="2">
         <v>0.2</v>
       </c>
-      <c r="C48" s="2">
-        <f>H16</f>
-        <v>6.0894058768842842E-7</v>
-      </c>
-      <c r="D48" s="2">
-        <f>I16</f>
-        <v>1.021190519940063E-8</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="13"/>
-        <v>9589289962781248</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="C48" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>5839307865.4507608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>3</v>
       </c>
       <c r="B49" s="2">
         <v>0.2</v>
       </c>
-      <c r="C49" s="2">
-        <f>H17</f>
-        <v>6.263568937931525E-7</v>
-      </c>
-      <c r="D49" s="2">
-        <f>I17</f>
-        <v>5.3600139944715467E-9</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="13"/>
-        <v>3.480712499313284E+16</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="C49" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D49" s="2" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>21801682692.568691</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>1</v>
       </c>
       <c r="B50" s="2">
         <v>0.25</v>
       </c>
-      <c r="C50" s="2">
-        <f>H21</f>
-        <v>6.1587738773295786E-7</v>
-      </c>
-      <c r="D50" s="2">
-        <f>I21</f>
-        <v>1.8212478974757437E-8</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="13"/>
-        <v>3014823370320001</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="C50" s="2" t="e">
+        <f t="shared" ref="C50:D52" si="18">H21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>1856761541.788954</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>2</v>
       </c>
       <c r="B51" s="2">
         <v>0.25</v>
       </c>
-      <c r="C51" s="2">
-        <f>H22</f>
-        <v>6.2430948208342998E-7</v>
-      </c>
-      <c r="D51" s="2">
-        <f>I22</f>
-        <v>8.1051932021401288E-9</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="13"/>
-        <v>1.5222053954880006E+16</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="C51" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>9503272620.8171635</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>3</v>
       </c>
       <c r="B52" s="2">
         <v>0.25</v>
       </c>
-      <c r="C52" s="2">
-        <f>H23</f>
-        <v>6.3472984126403613E-7</v>
-      </c>
-      <c r="D52" s="2">
-        <f>I23</f>
-        <v>4.2342534778303997E-9</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="13"/>
-        <v>5.5775862420479976E+16</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="C52" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>35402604300.515976</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>1</v>
       </c>
       <c r="B53" s="2">
         <v>0.3</v>
       </c>
-      <c r="C53" s="2">
-        <f>H27</f>
-        <v>6.2746747984227358E-7</v>
-      </c>
-      <c r="D53" s="2">
-        <f>I27</f>
-        <v>1.5156686313865316E-8</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="13"/>
-        <v>4353028144531246.5</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="C53" s="2" t="e">
+        <f t="shared" ref="C53:D55" si="19">H27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="2" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>2731383599.5315094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>2</v>
       </c>
       <c r="B54" s="2">
         <v>0.3</v>
       </c>
-      <c r="C54" s="2">
-        <f>H28</f>
-        <v>6.2563727953273217E-7</v>
-      </c>
-      <c r="D54" s="2">
-        <f>I28</f>
-        <v>6.7496333954888082E-9</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="13"/>
-        <v>2.1950258050125008E+16</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="C54" s="2" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" s="2" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>13732899731.521664</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>3</v>
       </c>
       <c r="B55" s="2">
         <v>0.3</v>
       </c>
-      <c r="C55" s="2">
-        <f>H29</f>
-        <v>6.351392236534074E-7</v>
-      </c>
-      <c r="D55" s="2">
-        <f>I29</f>
-        <v>3.52633897705008E-9</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="13"/>
-        <v>8.0417743924499968E+16</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="C55" s="2" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="2" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="2" t="e">
         <f t="shared" si="14"/>
-        <v>51076463444.165428</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3463,1113 +3319,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CDF426-B194-4AB3-A0A1-926BC53A9AC8}">
-  <dimension ref="A1:T29"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:T17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="18" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <f>O2</f>
-        <v>Zapis λ w [nm]</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.8000000000000002E-2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5.9050999438421715E-7</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4.566103455937926E-8</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J29" si="0">O3</f>
-        <v>590,51(45)</v>
-      </c>
-      <c r="M3" s="2">
-        <f>H3*10^9</f>
-        <v>590.50999438421718</v>
-      </c>
-      <c r="N3" s="2">
-        <f>I3*10^9</f>
-        <v>45.66103455937926</v>
-      </c>
-      <c r="O3" s="2" t="str">
-        <f>_xlfn.CONCAT(FIXED(M3,RIGHT(TEXT(N3,"0,00E+00"),2)+1,TRUE),"(",LEFT(N3*10^LEN(N3),2),")")</f>
-        <v>590,51(45)</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>5.9050999438421717E-5</v>
-      </c>
-      <c r="R3" s="10">
-        <v>4.5661034559379278E-6</v>
-      </c>
-      <c r="S3" s="10">
-        <v>47963239200.000008</v>
-      </c>
-      <c r="T3" s="10">
-        <v>2832277.2110640868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6.0557546081940643E-7</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.0458489748764493E-8</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>605,58(20)</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M5" si="1">H4*10^9</f>
-        <v>605.57546081940643</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" ref="N4:N5" si="2">I4*10^9</f>
-        <v>20.458489748764492</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O5" si="3">_xlfn.CONCAT(FIXED(M4,RIGHT(TEXT(N4,"0,00E+00"),2)+1,TRUE),"(",LEFT(N4*10^LEN(N4),2),")")</f>
-        <v>605,58(20)</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>6.0557546081940649E-5</v>
-      </c>
-      <c r="R4" s="10">
-        <v>2.0458489748764499E-6</v>
-      </c>
-      <c r="S4" s="10">
-        <v>238920193800.00006</v>
-      </c>
-      <c r="T4" s="10">
-        <v>14468420.645949693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6.1204689814526509E-7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.0945586532716442E-8</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>612,05(10)</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="1"/>
-        <v>612.04689814526512</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" si="2"/>
-        <v>10.945586532716442</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>612,05(10)</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>6.1204689814526496E-5</v>
-      </c>
-      <c r="R5" s="10">
-        <v>1.0945586532716436E-6</v>
-      </c>
-      <c r="S5" s="10">
-        <v>834683680800.00073</v>
-      </c>
-      <c r="T5" s="10">
-        <v>51086555.776611291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="Q6" s="10">
-        <v>6.116570436762861E-5</v>
-      </c>
-      <c r="R6" s="10">
-        <v>3.0368784624057204E-6</v>
-      </c>
-      <c r="S6" s="10">
-        <v>108428931199.99986</v>
-      </c>
-      <c r="T6" s="10">
-        <v>6632131.9506771341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="Q7" s="10">
-        <v>6.2342351471836627E-5</v>
-      </c>
-      <c r="R7" s="10">
-        <v>1.3514908710477694E-6</v>
-      </c>
-      <c r="S7" s="10">
-        <v>547486944049.99896</v>
-      </c>
-      <c r="T7" s="10">
-        <v>34131623.49220679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Zapis λ w [nm]</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>6.1419516128867078E-5</v>
-      </c>
-      <c r="R8" s="10">
-        <v>7.274704991335439E-7</v>
-      </c>
-      <c r="S8" s="10">
-        <v>1889597160112.4966</v>
-      </c>
-      <c r="T8" s="10">
-        <v>116058143.25259091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.7999999999999997E-2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6.1165704367628607E-7</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.0368784624057185E-8</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>611,66(30)</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" ref="M9:M29" si="4">H9*10^9</f>
-        <v>611.65704367628609</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ref="N9:N29" si="5">I9*10^9</f>
-        <v>30.368784624057184</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" ref="O9:O29" si="6">_xlfn.CONCAT(FIXED(M9,RIGHT(TEXT(N9,"0,00E+00"),2)+1,TRUE),"(",LEFT(N9*10^LEN(N9),2),")")</f>
-        <v>611,66(30)</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>6.2220215274423393E-5</v>
-      </c>
-      <c r="R9" s="10">
-        <v>2.2748987587637857E-6</v>
-      </c>
-      <c r="S9" s="10">
-        <v>193230577800.00003</v>
-      </c>
-      <c r="T9" s="10">
-        <v>12022848.14831722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6.2342351471836631E-7</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.3514908710477683E-8</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>623,42(13)</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="4"/>
-        <v>623.42351471836628</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="5"/>
-        <v>13.514908710477682</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>623,42(13)</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>6.0894058768842837E-5</v>
-      </c>
-      <c r="R10" s="10">
-        <v>1.0211905199400624E-6</v>
-      </c>
-      <c r="S10" s="10">
-        <v>958928996278.12573</v>
-      </c>
-      <c r="T10" s="10">
-        <v>58393078.654507659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.6999999999999989E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>9.9499999999999991E-2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.1419516128867084E-7</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7.2747049913354337E-9</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>614,2(72)</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="4"/>
-        <v>614.19516128867087</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="5"/>
-        <v>7.274704991335434</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>614,2(72)</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>6.2635689379315256E-5</v>
-      </c>
-      <c r="R11" s="10">
-        <v>5.3600139944715486E-7</v>
-      </c>
-      <c r="S11" s="10">
-        <v>3480712499313.2813</v>
-      </c>
-      <c r="T11" s="10">
-        <v>218016826.92568675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="Q12" s="10">
-        <v>6.1587738773295785E-5</v>
-      </c>
-      <c r="R12" s="10">
-        <v>1.8212478974757448E-6</v>
-      </c>
-      <c r="S12" s="10">
-        <v>301482337031.99976</v>
-      </c>
-      <c r="T12" s="10">
-        <v>18567615.417889521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="Q13" s="10">
-        <v>6.243094820834299E-5</v>
-      </c>
-      <c r="R13" s="10">
-        <v>8.1051932021401336E-7</v>
-      </c>
-      <c r="S13" s="10">
-        <v>1522205395487.9985</v>
-      </c>
-      <c r="T13" s="10">
-        <v>95032726.208171502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Zapis λ w [nm]</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>6.3472984126403611E-5</v>
-      </c>
-      <c r="R14" s="10">
-        <v>4.2342534778303943E-7</v>
-      </c>
-      <c r="S14" s="10">
-        <v>5577586242048.0117</v>
-      </c>
-      <c r="T14" s="10">
-        <v>354026043.00516063</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="2">
-        <v>6.2220215274423388E-7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2.2748987587637852E-8</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>622,20(22)</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" ref="M15:M29" si="7">H15*10^9</f>
-        <v>622.2021527442339</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ref="N15:N29" si="8">I15*10^9</f>
-        <v>22.748987587637853</v>
-      </c>
-      <c r="O15" s="2" t="str">
-        <f t="shared" ref="O15" si="9">_xlfn.CONCAT(FIXED(M15,RIGHT(TEXT(N15,"0,00E+00"),2)+1,TRUE),"(",LEFT(N15*10^LEN(N15),2),")")</f>
-        <v>622,20(22)</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>6.2746747984227357E-5</v>
-      </c>
-      <c r="R15" s="10">
-        <v>1.5156686313865314E-6</v>
-      </c>
-      <c r="S15" s="10">
-        <v>435302814453.12482</v>
-      </c>
-      <c r="T15" s="10">
-        <v>27313835.995315105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7.85E-2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="2">
-        <v>6.0894058768842842E-7</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1.021190519940063E-8</v>
-      </c>
-      <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>608,94(10)</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="7"/>
-        <v>608.94058768842842</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="8"/>
-        <v>10.211905199400631</v>
-      </c>
-      <c r="O16" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>608,94(10)</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>6.2563727953273213E-5</v>
-      </c>
-      <c r="R16" s="10">
-        <v>6.7496333954888084E-7</v>
-      </c>
-      <c r="S16" s="10">
-        <v>2195025805012.5005</v>
-      </c>
-      <c r="T16" s="10">
-        <v>137328997.3152166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.13650000000000001</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6.263568937931525E-7</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5.3600139944715467E-9</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>626,4(53)</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="7"/>
-        <v>626.35689379315249</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="8"/>
-        <v>5.3600139944715464</v>
-      </c>
-      <c r="O17" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>626,4(53)</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>6.3513922365340735E-5</v>
-      </c>
-      <c r="R17" s="10">
-        <v>3.5263389770500829E-7</v>
-      </c>
-      <c r="S17" s="10">
-        <v>8041774392449.9854</v>
-      </c>
-      <c r="T17" s="10">
-        <v>510764634.44165355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Zapis λ w [nm]</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="2">
-        <v>6.1587738773295786E-7</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1.8212478974757437E-8</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>615,88(18)</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" ref="M21:M29" si="10">H21*10^9</f>
-        <v>615.87738773295791</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" ref="N21:N29" si="11">I21*10^9</f>
-        <v>18.212478974757438</v>
-      </c>
-      <c r="O21" s="2" t="str">
-        <f t="shared" ref="O21" si="12">_xlfn.CONCAT(FIXED(M21,RIGHT(TEXT(N21,"0,00E+00"),2)+1,TRUE),"(",LEFT(N21*10^LEN(N21),2),")")</f>
-        <v>615,88(18)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6.2430948208342998E-7</v>
-      </c>
-      <c r="I22" s="2">
-        <v>8.1051932021401288E-9</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>624,3(81)</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="10"/>
-        <v>624.30948208343</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="11"/>
-        <v>8.1051932021401285</v>
-      </c>
-      <c r="O22" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>624,3(81)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2">
-        <v>6.3472984126403613E-7</v>
-      </c>
-      <c r="I23" s="2">
-        <v>4.2342534778303997E-9</v>
-      </c>
-      <c r="J23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>634,7(42)</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="10"/>
-        <v>634.72984126403617</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="11"/>
-        <v>4.2342534778304</v>
-      </c>
-      <c r="O23" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>634,7(42)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Zapis λ w [nm]</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5.7999999999999996E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5.7499999999999996E-2</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6.2746747984227358E-7</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1.5156686313865316E-8</v>
-      </c>
-      <c r="J27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>627,47(15)</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" ref="M27:M29" si="13">H27*10^9</f>
-        <v>627.46747984227363</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" ref="N27:N29" si="14">I27*10^9</f>
-        <v>15.156686313865317</v>
-      </c>
-      <c r="O27" s="2" t="str">
-        <f t="shared" ref="O27" si="15">_xlfn.CONCAT(FIXED(M27,RIGHT(TEXT(N27,"0,00E+00"),2)+1,TRUE),"(",LEFT(N27*10^LEN(N27),2),")")</f>
-        <v>627,47(15)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.12300000000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.1215</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="2">
-        <v>6.2563727953273217E-7</v>
-      </c>
-      <c r="I28" s="2">
-        <v>6.7496333954888082E-9</v>
-      </c>
-      <c r="J28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>625,6(67)</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="13"/>
-        <v>625.63727953273212</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="14"/>
-        <v>6.7496333954888081</v>
-      </c>
-      <c r="O28" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>625,6(67)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.21300000000000002</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.20900000000000002</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="2">
-        <v>6.351392236534074E-7</v>
-      </c>
-      <c r="I29" s="2">
-        <v>3.52633897705008E-9</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>635,1(35)</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="13"/>
-        <v>635.13922365340738</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="14"/>
-        <v>3.5263389770500799</v>
-      </c>
-      <c r="O29" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>635,1(35)</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
@@ -4577,12 +3326,12 @@
       <selection activeCell="B1" sqref="B1:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +3352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4623,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4645,7 +3394,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -4667,7 +3416,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -4689,7 +3438,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -4710,7 +3459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -4730,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -4752,7 +3501,7 @@
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -4774,7 +3523,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -4796,7 +3545,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -4817,7 +3566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -4837,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -4859,7 +3608,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -4881,7 +3630,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -4903,7 +3652,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -4924,7 +3673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -4944,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -4966,7 +3715,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -4988,7 +3737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -5010,7 +3759,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -5031,7 +3780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -5051,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -5073,7 +3822,7 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -5095,7 +3844,7 @@
         <v>0.12300000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>3</v>
       </c>

--- a/6/6tka.xlsx
+++ b/6/6tka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C8347F-59A1-4347-B955-51DC69AB5B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6642DF78-0232-4C81-B84E-5045F7E1340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania w cm" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
   <si>
     <t>xr</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Jednostka</t>
+  </si>
+  <si>
+    <t>ub(xn)</t>
+  </si>
+  <si>
+    <t>ua(xn)</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7F5E49-8A1C-4415-AA0A-63BEE195A981}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,7 +1140,7 @@
       </c>
       <c r="F3" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(E3,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>1,80(14)</v>
+        <v>1,80(11)</v>
       </c>
       <c r="H3" s="2">
         <f>$J$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
@@ -1142,11 +1148,11 @@
       </c>
       <c r="I3" s="2">
         <f>SQRT(($J$1*$C$1^2*$C$37/B3/(E3^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E3*$C$37/B3/(E3^2+$C$1^2)^1.5)^2)</f>
-        <v>4.5661034559379278E-6</v>
+        <v>3.7282078599355915E-6</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(H3,RIGHT(TEXT(I3,"0,00E+00"),2)+1,TRUE),"(",LEFT(I3*10^LEN(I3),2),")")</f>
-        <v>0,0000591(45)</v>
+        <v>0,0000591(37)</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1165,7 +1171,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ref="F4:F5" si="1">_xlfn.CONCAT(FIXED(E4,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>3,90(14)</v>
+        <v>3,90(11)</v>
       </c>
       <c r="H4" s="2">
         <f>$J$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
@@ -1173,11 +1179,11 @@
       </c>
       <c r="I4" s="2">
         <f>SQRT(($J$1*$C$1^2*$C$37/B4/(E4^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E4*$C$37/B4/(E4^2+$C$1^2)^1.5)^2)</f>
-        <v>2.0458489748764499E-6</v>
+        <v>1.6704286930811143E-6</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" ref="J4:J5" si="2">_xlfn.CONCAT(FIXED(H4,RIGHT(TEXT(I4,"0,00E+00"),2)+1,TRUE),"(",LEFT(I4*10^LEN(I4),2),")")</f>
-        <v>0,0000606(20)</v>
+        <v>0,0000606(16)</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1196,7 +1202,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>6,60(14)</v>
+        <v>6,60(11)</v>
       </c>
       <c r="H5" s="2">
         <f>$J$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
@@ -1204,11 +1210,11 @@
       </c>
       <c r="I5" s="2">
         <f>SQRT(($J$1*$C$1^2*$C$37/B5/(E5^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E5*$C$37/B5/(E5^2+$C$1^2)^1.5)^2)</f>
-        <v>1.0945586532716436E-6</v>
+        <v>8.9370339802115323E-7</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0,0000612(10)</v>
+        <v>0,00006120(89)</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1264,7 +1270,7 @@
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ref="F9:F29" si="3">_xlfn.CONCAT(FIXED(E9,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>2,80(14)</v>
+        <v>2,80(11)</v>
       </c>
       <c r="H9" s="2">
         <f>$J$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
@@ -1272,11 +1278,11 @@
       </c>
       <c r="I9" s="2">
         <f>SQRT(($J$1*$C$7^2*$C$37/B9/(E9^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E9*$C$37/B9/(E9^2+$C$7^2)^1.5)^2)</f>
-        <v>3.0368784624057204E-6</v>
+        <v>2.4796008812473201E-6</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" ref="J9:J29" si="4">_xlfn.CONCAT(FIXED(H9,RIGHT(TEXT(I9,"0,00E+00"),2)+1,TRUE),"(",LEFT(I9*10^LEN(I9),2),")")</f>
-        <v>0,0000612(30)</v>
+        <v>0,0000612(24)</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>12</v>
@@ -1298,7 +1304,7 @@
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>6,05(14)</v>
+        <v>6,05(11)</v>
       </c>
       <c r="H10" s="2">
         <f>$J$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
@@ -1306,11 +1312,11 @@
       </c>
       <c r="I10" s="2">
         <f>SQRT(($J$1*$C$7^2*$C$37/B10/(E10^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E10*$C$37/B10/(E10^2+$C$7^2)^1.5)^2)</f>
-        <v>1.3514908710477694E-6</v>
+        <v>1.1034876753655379E-6</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,0000623(13)</v>
+        <v>0,0000623(11)</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1329,7 +1335,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>9,95(14)</v>
+        <v>9,95(11)</v>
       </c>
       <c r="H11" s="2">
         <f>$J$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
@@ -1337,11 +1343,11 @@
       </c>
       <c r="I11" s="2">
         <f>SQRT(($J$1*$C$7^2*$C$37/B11/(E11^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E11*$C$37/B11/(E11^2+$C$7^2)^1.5)^2)</f>
-        <v>7.274704991335439E-7</v>
+        <v>5.9397717526832474E-7</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,00006142(72)</v>
+        <v>0,00006142(59)</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1397,7 +1403,7 @@
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" ref="F15" si="6">_xlfn.CONCAT(FIXED(E15,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>3,80(14)</v>
+        <v>3,80(11)</v>
       </c>
       <c r="H15" s="2">
         <f>$J$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
@@ -1405,11 +1411,11 @@
       </c>
       <c r="I15" s="2">
         <f>SQRT(($J$1*$C$13^2*$C$37/B15/(E15^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E15*$C$37/B15/(E15^2+$C$13^2)^1.5)^2)</f>
-        <v>2.2748987587637857E-6</v>
+        <v>1.8574470584873586E-6</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" ref="J15" si="7">_xlfn.CONCAT(FIXED(H15,RIGHT(TEXT(I15,"0,00E+00"),2)+1,TRUE),"(",LEFT(I15*10^LEN(I15),2),")")</f>
-        <v>0,0000622(22)</v>
+        <v>0,0000622(18)</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1428,7 +1434,7 @@
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>7,85(14)</v>
+        <v>7,85(11)</v>
       </c>
       <c r="H16" s="2">
         <f>$J$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
@@ -1436,14 +1442,14 @@
       </c>
       <c r="I16" s="2">
         <f>SQRT(($J$1*$C$13^2*$C$37/B16/(E16^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E16*$C$37/B16/(E16^2+$C$13^2)^1.5)^2)</f>
-        <v>1.0211905199400624E-6</v>
+        <v>8.337985680068678E-7</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,0000609(10)</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+        <v>0,00006089(83)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -1459,7 +1465,7 @@
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>13,65(14)</v>
+        <v>13,65(11)</v>
       </c>
       <c r="H17" s="2">
         <f>$J$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
@@ -1467,14 +1473,14 @@
       </c>
       <c r="I17" s="2">
         <f>SQRT(($J$1*$C$13^2*$C$37/B17/(E17^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E17*$C$37/B17/(E17^2+$C$13^2)^1.5)^2)</f>
-        <v>5.3600139944715486E-7</v>
+        <v>4.3764331002107824E-7</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,00006264(53)</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+        <v>0,00006264(43)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1492,7 @@
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -1528,7 +1534,7 @@
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ref="F21" si="8">_xlfn.CONCAT(FIXED(E21,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>4,70(14)</v>
+        <v>4,70(11)</v>
       </c>
       <c r="H21" s="2">
         <f>$J$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
@@ -1536,18 +1542,18 @@
       </c>
       <c r="I21" s="2">
         <f>SQRT(($J$1*$C$19^2*$C$37/B21/(E21^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E21*$C$37/B21/(E21^2+$C$19^2)^1.5)^2)</f>
-        <v>1.8212478974757448E-6</v>
+        <v>1.4870426813107553E-6</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" ref="J21" si="9">_xlfn.CONCAT(FIXED(H21,RIGHT(TEXT(I21,"0,00E+00"),2)+1,TRUE),"(",LEFT(I21*10^LEN(I21),2),")")</f>
-        <v>0,0000616(18)</v>
+        <v>0,0000616(14)</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1563,7 +1569,7 @@
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>10,10(14)</v>
+        <v>10,10(11)</v>
       </c>
       <c r="H22" s="2">
         <f>$J$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
@@ -1571,11 +1577,11 @@
       </c>
       <c r="I22" s="2">
         <f>SQRT(($J$1*$C$19^2*$C$37/B22/(E22^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E22*$C$37/B22/(E22^2+$C$19^2)^1.5)^2)</f>
-        <v>8.1051932021401336E-7</v>
+        <v>6.6178625373060664E-7</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,00006243(81)</v>
+        <v>0,00006243(66)</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1583,7 +1589,7 @@
       <c r="O22" s="4"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1599,7 +1605,7 @@
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>17,40(14)</v>
+        <v>17,40(11)</v>
       </c>
       <c r="H23" s="2">
         <f>$J$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
@@ -1607,20 +1613,20 @@
       </c>
       <c r="I23" s="2">
         <f>SQRT(($J$1*$C$19^2*$C$37/B23/(E23^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E23*$C$37/B23/(E23^2+$C$19^2)^1.5)^2)</f>
-        <v>4.2342534778303943E-7</v>
+        <v>3.4572534874298503E-7</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,00006347(42)</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+        <v>0,00006347(34)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1641,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -1677,7 +1683,7 @@
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ref="F27" si="11">_xlfn.CONCAT(FIXED(E27,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>5,75(14)</v>
+        <v>5,75(11)</v>
       </c>
       <c r="H27" s="2">
         <f>$J$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
@@ -1685,17 +1691,17 @@
       </c>
       <c r="I27" s="2">
         <f>SQRT(($J$1*$C$25^2*$C$37/B27/(E27^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E27*$C$37/B27/(E27^2+$C$25^2)^1.5)^2)</f>
-        <v>1.5156686313865314E-6</v>
+        <v>1.2375382553465084E-6</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" ref="J27" si="12">_xlfn.CONCAT(FIXED(H27,RIGHT(TEXT(I27,"0,00E+00"),2)+1,TRUE),"(",LEFT(I27*10^LEN(I27),2),")")</f>
-        <v>0,0000627(15)</v>
+        <v>0,0000627(12)</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -1711,7 +1717,7 @@
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>12,15(14)</v>
+        <v>12,15(11)</v>
       </c>
       <c r="H28" s="2">
         <f>$J$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
@@ -1719,17 +1725,17 @@
       </c>
       <c r="I28" s="2">
         <f>SQRT(($J$1*$C$25^2*$C$37/B28/(E28^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E28*$C$37/B28/(E28^2+$C$25^2)^1.5)^2)</f>
-        <v>6.7496333954888084E-7</v>
+        <v>5.511052589932209E-7</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,00006256(67)</v>
+        <v>0,00006256(55)</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>3</v>
       </c>
@@ -1745,7 +1751,7 @@
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>20,90(14)</v>
+        <v>20,90(11)</v>
       </c>
       <c r="H29" s="2">
         <f>$J$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
@@ -1753,21 +1759,25 @@
       </c>
       <c r="I29" s="2">
         <f>SQRT(($J$1*$C$25^2*$C$37/B29/(E29^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E29*$C$37/B29/(E29^2+$C$25^2)^1.5)^2)</f>
-        <v>3.5263389770500829E-7</v>
+        <v>2.8792437179535666E-7</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>0,00006351(35)</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+        <v>0,00006351(28)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
-        <v>0.2</v>
+        <f>0.2/SQRT(3)</f>
+        <v>0.11547005383792516</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1775,8 +1785,8 @@
         <v>24</v>
       </c>
       <c r="C37" s="1">
-        <f>(SQRT(2*B32^2))/2</f>
-        <v>0.14142135623730953</v>
+        <f>SQRT(A32^2+B32^2)</f>
+        <v>0.11547005383792516</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1829,15 +1839,15 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" si="13"/>
-        <v>4.5661034559379278E-6</v>
+        <v>3.7282078599355915E-6</v>
       </c>
       <c r="E41" s="2">
         <f>1/D41^2</f>
-        <v>47963239200.000008</v>
+        <v>71944858800.000015</v>
       </c>
       <c r="F41" s="2">
         <f>C41*E41</f>
-        <v>2832277.2110640868</v>
+        <v>4248415.8165961308</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>28</v>
@@ -1848,11 +1858,11 @@
       </c>
       <c r="I41" s="2">
         <f>SQRT(1/SUM(E41:E55))</f>
-        <v>1.9472312111602983E-7</v>
+        <v>1.5899076261881385E-7</v>
       </c>
       <c r="J41" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(H41,RIGHT(TEXT(I41,"0,00E+00"),2)+1,TRUE),"(",LEFT(I41*10^LEN(I41),2),")")</f>
-        <v>0,00006282(19)</v>
+        <v>0,00006282(15)</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -1868,15 +1878,15 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" si="13"/>
-        <v>2.0458489748764499E-6</v>
+        <v>1.6704286930811143E-6</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ref="E42:E55" si="14">1/D42^2</f>
-        <v>238920193800.00006</v>
+        <v>358380290700.00024</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ref="F42:F55" si="15">C42*E42</f>
-        <v>14468420.645949693</v>
+        <v>21702630.968924552</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>26</v>
@@ -1887,11 +1897,11 @@
       </c>
       <c r="I42" s="1">
         <f>I41*10^7</f>
-        <v>1.9472312111602983</v>
+        <v>1.5899076261881384</v>
       </c>
       <c r="J42" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(H42,RIGHT(TEXT(I42,"0,00E+00"),2)+1,TRUE),"(",LEFT(I42*10^LEN(I42),2),")")</f>
-        <v>628,2(19)</v>
+        <v>628,2(15)</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -1907,15 +1917,15 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" si="13"/>
-        <v>1.0945586532716436E-6</v>
+        <v>8.9370339802115323E-7</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="14"/>
-        <v>834683680800.00073</v>
+        <v>1252025521200.0017</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="15"/>
-        <v>51086555.776611291</v>
+        <v>76629833.664916977</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -1931,15 +1941,15 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" si="16"/>
-        <v>3.0368784624057204E-6</v>
+        <v>2.4796008812473201E-6</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="14"/>
-        <v>108428931199.99986</v>
+        <v>162643396799.99985</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="15"/>
-        <v>6632131.9506771341</v>
+        <v>9948197.926015703</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -1955,15 +1965,15 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" si="16"/>
-        <v>1.3514908710477694E-6</v>
+        <v>1.1034876753655379E-6</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="14"/>
-        <v>547486944049.99896</v>
+        <v>821230416074.99866</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="15"/>
-        <v>34131623.49220679</v>
+        <v>51197435.238310196</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -1979,15 +1989,15 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" si="16"/>
-        <v>7.274704991335439E-7</v>
+        <v>5.9397717526832474E-7</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="14"/>
-        <v>1889597160112.4966</v>
+        <v>2834395740168.7461</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="15"/>
-        <v>116058143.25259091</v>
+        <v>174087214.87888643</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2003,15 +2013,15 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" si="17"/>
-        <v>2.2748987587637857E-6</v>
+        <v>1.8574470584873586E-6</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="14"/>
-        <v>193230577800.00003</v>
+        <v>289845866700.00006</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="15"/>
-        <v>12022848.14831722</v>
+        <v>18034272.22247583</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2027,15 +2037,15 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" si="17"/>
-        <v>1.0211905199400624E-6</v>
+        <v>8.337985680068678E-7</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="14"/>
-        <v>958928996278.12573</v>
+        <v>1438393494417.189</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="15"/>
-        <v>58393078.654507659</v>
+        <v>87589617.981761515</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -2051,15 +2061,15 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" si="17"/>
-        <v>5.3600139944715486E-7</v>
+        <v>4.3764331002107824E-7</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="14"/>
-        <v>3480712499313.2813</v>
+        <v>5221068748969.9229</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="15"/>
-        <v>218016826.92568675</v>
+        <v>327025240.38853019</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2075,15 +2085,15 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" si="18"/>
-        <v>1.8212478974757448E-6</v>
+        <v>1.4870426813107553E-6</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="14"/>
-        <v>301482337031.99976</v>
+        <v>452223505547.99963</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="15"/>
-        <v>18567615.417889521</v>
+        <v>27851423.126834277</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2099,15 +2109,15 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" si="18"/>
-        <v>8.1051932021401336E-7</v>
+        <v>6.6178625373060664E-7</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="14"/>
-        <v>1522205395487.9985</v>
+        <v>2283308093231.998</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="15"/>
-        <v>95032726.208171502</v>
+        <v>142549089.31225726</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2123,15 +2133,15 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="18"/>
-        <v>4.2342534778303943E-7</v>
+        <v>3.4572534874298503E-7</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="14"/>
-        <v>5577586242048.0117</v>
+        <v>8366379363072.0146</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="15"/>
-        <v>354026043.00516063</v>
+        <v>531039064.50774074</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -2147,15 +2157,15 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="19"/>
-        <v>1.5156686313865314E-6</v>
+        <v>1.2375382553465084E-6</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="14"/>
-        <v>435302814453.12482</v>
+        <v>652954221679.6875</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="15"/>
-        <v>27313835.995315105</v>
+        <v>40970753.992972672</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2171,15 +2181,15 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" si="19"/>
-        <v>6.7496333954888084E-7</v>
+        <v>5.511052589932209E-7</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="14"/>
-        <v>2195025805012.5005</v>
+        <v>3292538707518.752</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="15"/>
-        <v>137328997.3152166</v>
+        <v>205993495.97282499</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2195,15 +2205,15 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" si="19"/>
-        <v>3.5263389770500829E-7</v>
+        <v>2.8792437179535666E-7</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="14"/>
-        <v>8041774392449.9854</v>
+        <v>12062661588674.984</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="15"/>
-        <v>510764634.44165355</v>
+        <v>766146951.66248071</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336A725-1A1C-4F2D-9234-A62E4BB6A2B9}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3322,7 +3332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D29"/>
     </sheetView>
   </sheetViews>

--- a/6/6tka.xlsx
+++ b/6/6tka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6642DF78-0232-4C81-B84E-5045F7E1340F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5666F4-3642-499C-8D0A-247A7FF705AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania w cm" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="36">
   <si>
     <t>xr</t>
   </si>
@@ -135,16 +135,32 @@
   <si>
     <t>ua(xn)</t>
   </si>
+  <si>
+    <t>odchyl</t>
+  </si>
+  <si>
+    <t>st. Fish. 2</t>
+  </si>
+  <si>
+    <t>waga = 1/u(λ)^2</t>
+  </si>
+  <si>
+    <t>Jednostka:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +174,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -204,10 +232,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,9 +260,37 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -252,14 +309,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>306204</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>325254</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>167736</xdr:rowOff>
     </xdr:to>
@@ -296,14 +353,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>498217</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>517267</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>75991</xdr:rowOff>
     </xdr:to>
@@ -340,102 +397,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>240530</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50654</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18046</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obraz 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA692A3-4921-4FC1-91A1-9B0292F469E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1621655" y="5601470"/>
-          <a:ext cx="3658224" cy="512576"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>288636</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>839397</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>82422</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obraz 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1505B0CA-61A7-4FE4-BC2E-7DD4F155F5FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1669761" y="6201834"/>
-          <a:ext cx="2884386" cy="548088"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>57728</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>88279</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>688354</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>40350</xdr:rowOff>
     </xdr:to>
@@ -453,7 +422,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -472,14 +441,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>144319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>357143</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>176168</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>36465</xdr:rowOff>
     </xdr:to>
@@ -497,7 +466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1049,56 +1018,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7F5E49-8A1C-4415-AA0A-63BEE195A981}">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="8.7265625" style="1"/>
-    <col min="21" max="21" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="8.7109375" style="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="16">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1">
+      <c r="M1" s="1">
         <f>1/3000</f>
         <v>3.3333333333333332E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1111,20 +1084,32 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1.837</v>
+      </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1138,24 +1123,36 @@
         <f>(C3+D3)/2</f>
         <v>1.8</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f>_xlfn.CONCAT(FIXED(E3,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+      <c r="F3" s="1">
+        <f>STDEVA(C3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3*$A$3/SQRT(2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <f>SQRT(G3^2+$B$32^2)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(E3,RIGHT(TEXT(H3,"0,00E+00"),2)+1,TRUE),"(",LEFT(H3*10^LEN(H3),2),")")</f>
         <v>1,80(11)</v>
       </c>
-      <c r="H3" s="2">
-        <f>$J$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
+      <c r="K3" s="2">
+        <f>$M$1/B3*E3/SQRT(E3^2+$C$1^2)</f>
         <v>5.9050999438421717E-5</v>
       </c>
-      <c r="I3" s="2">
-        <f>SQRT(($J$1*$C$1^2*$C$37/B3/(E3^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E3*$C$37/B3/(E3^2+$C$1^2)^1.5)^2)</f>
+      <c r="L3" s="2">
+        <f>SQRT(($M$1*$C$1^2*H3/B3/(E3^2+$C$1^2)^1.5)^2+(-$M$1*$C$1*E3*H3/B3/(E3^2+$C$1^2)^1.5)^2)</f>
         <v>3.7282078599355915E-6</v>
       </c>
-      <c r="J3" s="2" t="str">
-        <f>_xlfn.CONCAT(FIXED(H3,RIGHT(TEXT(I3,"0,00E+00"),2)+1,TRUE),"(",LEFT(I3*10^LEN(I3),2),")")</f>
+      <c r="M3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K3,RIGHT(TEXT(L3,"0,00E+00"),2)+1,TRUE),"(",LEFT(L3*10^LEN(L3),2),")")</f>
         <v>0,0000591(37)</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1169,24 +1166,36 @@
         <f t="shared" ref="E4:E11" si="0">(C4+D4)/2</f>
         <v>3.9</v>
       </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F5" si="1">_xlfn.CONCAT(FIXED(E4,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+      <c r="F4" s="1">
+        <f>STDEVA(C4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G5" si="1">F4*$A$3/SQRT(2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H5" si="2">SQRT(G4^2+$B$32^2)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" ref="I4:I5" si="3">_xlfn.CONCAT(FIXED(E4,RIGHT(TEXT(H4,"0,00E+00"),2)+1,TRUE),"(",LEFT(H4*10^LEN(H4),2),")")</f>
         <v>3,90(11)</v>
       </c>
-      <c r="H4" s="2">
-        <f>$J$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
+      <c r="K4" s="2">
+        <f>$M$1/B4*E4/SQRT(E4^2+$C$1^2)</f>
         <v>6.0557546081940649E-5</v>
       </c>
-      <c r="I4" s="2">
-        <f>SQRT(($J$1*$C$1^2*$C$37/B4/(E4^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E4*$C$37/B4/(E4^2+$C$1^2)^1.5)^2)</f>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L5" si="4">SQRT(($M$1*$C$1^2*H4/B4/(E4^2+$C$1^2)^1.5)^2+(-$M$1*$C$1*E4*H4/B4/(E4^2+$C$1^2)^1.5)^2)</f>
         <v>1.6704286930811143E-6</v>
       </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4:J5" si="2">_xlfn.CONCAT(FIXED(H4,RIGHT(TEXT(I4,"0,00E+00"),2)+1,TRUE),"(",LEFT(I4*10^LEN(I4),2),")")</f>
+      <c r="M4" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K4,RIGHT(TEXT(L4,"0,00E+00"),2)+1,TRUE),"(",LEFT(L4*10^LEN(L4),2),")")</f>
         <v>0,0000606(16)</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1200,35 +1209,51 @@
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1">
+        <f t="shared" ref="F5" si="5">STDEVA(C5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="2"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>6,60(11)</v>
       </c>
-      <c r="H5" s="2">
-        <f>$J$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
+      <c r="K5" s="2">
+        <f>$M$1/B5*E5/SQRT(E5^2+$C$1^2)</f>
         <v>6.1204689814526496E-5</v>
       </c>
-      <c r="I5" s="2">
-        <f>SQRT(($J$1*$C$1^2*$C$37/B5/(E5^2+$C$1^2)^1.5)^2+(-$J$1*$C$1*E5*$C$37/B5/(E5^2+$C$1^2)^1.5)^2)</f>
+      <c r="L5" s="2">
+        <f t="shared" si="4"/>
         <v>8.9370339802115323E-7</v>
       </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="M5" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K5,RIGHT(TEXT(L5,"0,00E+00"),2)+1,TRUE),"(",LEFT(L5*10^LEN(L5),2),")")</f>
         <v>0,00006120(89)</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="16">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1241,20 +1266,29 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -1268,27 +1302,39 @@
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" ref="F9:F29" si="3">_xlfn.CONCAT(FIXED(E9,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F29" si="6">STDEVA(C9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G29" si="7">F9*$A$3/SQRT(2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" ref="H9:H29" si="8">SQRT(G9^2+$B$32^2)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" ref="I9:I29" si="9">_xlfn.CONCAT(FIXED(E9,RIGHT(TEXT(H9,"0,00E+00"),2)+1,TRUE),"(",LEFT(H9*10^LEN(H9),2),")")</f>
         <v>2,80(11)</v>
       </c>
-      <c r="H9" s="2">
-        <f>$J$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
+      <c r="K9" s="2">
+        <f>$M$1/B9*E9/SQRT(E9^2+$C$7^2)</f>
         <v>6.116570436762861E-5</v>
       </c>
-      <c r="I9" s="2">
-        <f>SQRT(($J$1*$C$7^2*$C$37/B9/(E9^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E9*$C$37/B9/(E9^2+$C$7^2)^1.5)^2)</f>
-        <v>2.4796008812473201E-6</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" ref="J9:J29" si="4">_xlfn.CONCAT(FIXED(H9,RIGHT(TEXT(I9,"0,00E+00"),2)+1,TRUE),"(",LEFT(I9*10^LEN(I9),2),")")</f>
-        <v>0,0000612(24)</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="2">
+        <f t="shared" ref="L9:L29" si="10">SQRT(($M$1*$C$1^2*H9/B9/(E9^2+$C$1^2)^1.5)^2+(-$M$1*$C$1*E9*H9/B9/(E9^2+$C$1^2)^1.5)^2)</f>
+        <v>3.5691782219932365E-6</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K9,RIGHT(TEXT(L9,"0,00E+00"),2)+1,TRUE),"(",LEFT(L9*10^LEN(L9),2),")")</f>
+        <v>0,0000612(35)</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -1302,24 +1348,36 @@
         <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>6,05(11)</v>
-      </c>
-      <c r="H10" s="2">
-        <f>$J$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
+      <c r="F10" s="1">
+        <f t="shared" si="6"/>
+        <v>7.0710678118654502E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12989551570396832</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="8"/>
+        <v>0.17379924721739509</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>6,05(17)</v>
+      </c>
+      <c r="K10" s="2">
+        <f>$M$1/B10*E10/SQRT(E10^2+$C$7^2)</f>
         <v>6.2342351471836627E-5</v>
       </c>
-      <c r="I10" s="2">
-        <f>SQRT(($J$1*$C$7^2*$C$37/B10/(E10^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E10*$C$37/B10/(E10^2+$C$7^2)^1.5)^2)</f>
-        <v>1.1034876753655379E-6</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0000623(11)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" s="2">
+        <f t="shared" si="10"/>
+        <v>2.1204986148056725E-6</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K10,RIGHT(TEXT(L10,"0,00E+00"),2)+1,TRUE),"(",LEFT(L10*10^LEN(L10),2),")")</f>
+        <v>0,0000623(21)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -1333,35 +1391,51 @@
         <f t="shared" si="0"/>
         <v>9.9499999999999993</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>9,95(11)</v>
-      </c>
-      <c r="H11" s="2">
-        <f>$J$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
+      <c r="F11" s="1">
+        <f t="shared" si="6"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.64947757851984389</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="8"/>
+        <v>0.65966238208142003</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>9,95(65)</v>
+      </c>
+      <c r="K11" s="2">
+        <f>$M$1/B11*E11/SQRT(E11^2+$C$7^2)</f>
         <v>6.1419516128867078E-5</v>
       </c>
-      <c r="I11" s="2">
-        <f>SQRT(($J$1*$C$7^2*$C$37/B11/(E11^2+$C$7^2)^1.5)^2+(-$J$1*$C$7*E11*$C$37/B11/(E11^2+$C$7^2)^1.5)^2)</f>
-        <v>5.9397717526832474E-7</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,00006142(59)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="2">
+        <f t="shared" si="10"/>
+        <v>3.6831607759334149E-6</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K11,RIGHT(TEXT(L11,"0,00E+00"),2)+1,TRUE),"(",LEFT(L11*10^LEN(L11),2),")")</f>
+        <v>0,0000614(36)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="16">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1374,20 +1448,29 @@
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1398,27 +1481,39 @@
         <v>3.8</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E29" si="5">(C15+D15)/2</f>
+        <f t="shared" ref="E15:E29" si="11">(C15+D15)/2</f>
         <v>3.8</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" ref="F15" si="6">_xlfn.CONCAT(FIXED(E15,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:F16" si="12">STDEVA(C15:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15" si="13">F15*$A$3/SQRT(2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" ref="H15" si="14">SQRT(G15^2+$B$32^2)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" ref="I15" si="15">_xlfn.CONCAT(FIXED(E15,RIGHT(TEXT(H15,"0,00E+00"),2)+1,TRUE),"(",LEFT(H15*10^LEN(H15),2),")")</f>
         <v>3,80(11)</v>
       </c>
-      <c r="H15" s="2">
-        <f>$J$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
+      <c r="K15" s="2">
+        <f>$M$1/B15*E15/SQRT(E15^2+$C$13^2)</f>
         <v>6.2220215274423393E-5</v>
       </c>
-      <c r="I15" s="2">
-        <f>SQRT(($J$1*$C$13^2*$C$37/B15/(E15^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E15*$C$37/B15/(E15^2+$C$13^2)^1.5)^2)</f>
-        <v>1.8574470584873586E-6</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" ref="J15" si="7">_xlfn.CONCAT(FIXED(H15,RIGHT(TEXT(I15,"0,00E+00"),2)+1,TRUE),"(",LEFT(I15*10^LEN(I15),2),")")</f>
-        <v>0,0000622(18)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" s="2">
+        <f t="shared" ref="L15" si="16">SQRT(($M$1*$C$1^2*H15/B15/(E15^2+$C$1^2)^1.5)^2+(-$M$1*$C$1*E15*H15/B15/(E15^2+$C$1^2)^1.5)^2)</f>
+        <v>3.3633360665829283E-6</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K15,RIGHT(TEXT(L15,"0,00E+00"),2)+1,TRUE),"(",LEFT(L15*10^LEN(L15),2),")")</f>
+        <v>0,0000622(33)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -1429,27 +1524,39 @@
         <v>7.9</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.85</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>7,85(11)</v>
-      </c>
-      <c r="H16" s="2">
-        <f>$J$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
+      <c r="F16" s="1">
+        <f t="shared" si="12"/>
+        <v>7.0710678118655126E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12989551570396946</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="8"/>
+        <v>0.17379924721739595</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>7,85(17)</v>
+      </c>
+      <c r="K16" s="2">
+        <f>$M$1/B16*E16/SQRT(E16^2+$C$13^2)</f>
         <v>6.0894058768842837E-5</v>
       </c>
-      <c r="I16" s="2">
-        <f>SQRT(($J$1*$C$13^2*$C$37/B16/(E16^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E16*$C$37/B16/(E16^2+$C$13^2)^1.5)^2)</f>
-        <v>8.337985680068678E-7</v>
-      </c>
-      <c r="J16" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,00006089(83)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L16" s="2">
+        <f t="shared" si="10"/>
+        <v>1.7922344477346479E-6</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K16,RIGHT(TEXT(L16,"0,00E+00"),2)+1,TRUE),"(",LEFT(L16*10^LEN(L16),2),")")</f>
+        <v>0,0000609(17)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -1460,39 +1567,55 @@
         <v>13.9</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13.65</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>13,65(11)</v>
-      </c>
-      <c r="H17" s="2">
-        <f>$J$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
+      <c r="F17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.64947757851984389</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="8"/>
+        <v>0.65966238208142003</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>13,65(65)</v>
+      </c>
+      <c r="K17" s="2">
+        <f>$M$1/B17*E17/SQRT(E17^2+$C$13^2)</f>
         <v>6.2635689379315256E-5</v>
       </c>
-      <c r="I17" s="2">
-        <f>SQRT(($J$1*$C$13^2*$C$37/B17/(E17^2+$C$13^2)^1.5)^2+(-$J$1*$C$13*E17*$C$37/B17/(E17^2+$C$13^2)^1.5)^2)</f>
-        <v>4.3764331002107824E-7</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,00006264(43)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L17" s="2">
+        <f t="shared" si="10"/>
+        <v>2.5599043117906848E-6</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K17,RIGHT(TEXT(L17,"0,00E+00"),2)+1,TRUE),"(",LEFT(L17*10^LEN(L17),2),")")</f>
+        <v>0,0000626(25)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="16">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H19" s="17"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1505,20 +1628,29 @@
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -1529,31 +1661,43 @@
         <v>4.7</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.7</v>
       </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" ref="F21" si="8">_xlfn.CONCAT(FIXED(E21,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F22" si="17">STDEVA(C21:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ref="G21" si="18">F21*$A$3/SQRT(2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" ref="H21" si="19">SQRT(G21^2+$B$32^2)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" ref="I21" si="20">_xlfn.CONCAT(FIXED(E21,RIGHT(TEXT(H21,"0,00E+00"),2)+1,TRUE),"(",LEFT(H21*10^LEN(H21),2),")")</f>
         <v>4,70(11)</v>
       </c>
-      <c r="H21" s="2">
-        <f>$J$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
+      <c r="K21" s="2">
+        <f>$M$1/B21*E21/SQRT(E21^2+$C$19^2)</f>
         <v>6.1587738773295785E-5</v>
       </c>
-      <c r="I21" s="2">
-        <f>SQRT(($J$1*$C$19^2*$C$37/B21/(E21^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E21*$C$37/B21/(E21^2+$C$19^2)^1.5)^2)</f>
-        <v>1.4870426813107553E-6</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" ref="J21" si="9">_xlfn.CONCAT(FIXED(H21,RIGHT(TEXT(I21,"0,00E+00"),2)+1,TRUE),"(",LEFT(I21*10^LEN(I21),2),")")</f>
-        <v>0,0000616(14)</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21" si="21">SQRT(($M$1*$C$1^2*H21/B21/(E21^2+$C$1^2)^1.5)^2+(-$M$1*$C$1*E21*H21/B21/(E21^2+$C$1^2)^1.5)^2)</f>
+        <v>3.1525938198030192E-6</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K21,RIGHT(TEXT(L21,"0,00E+00"),2)+1,TRUE),"(",LEFT(L21*10^LEN(L21),2),")")</f>
+        <v>0,0000616(31)</v>
+      </c>
       <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -1564,32 +1708,43 @@
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.1</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>10,10(11)</v>
-      </c>
-      <c r="H22" s="2">
-        <f>$J$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
+      <c r="F22" s="1">
+        <f t="shared" si="17"/>
+        <v>0.141421356237309</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25979103140793663</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="8"/>
+        <v>0.28429687534922515</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>10,10(28)</v>
+      </c>
+      <c r="K22" s="2">
+        <f>$M$1/B22*E22/SQRT(E22^2+$C$19^2)</f>
         <v>6.243094820834299E-5</v>
       </c>
-      <c r="I22" s="2">
-        <f>SQRT(($J$1*$C$19^2*$C$37/B22/(E22^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E22*$C$37/B22/(E22^2+$C$19^2)^1.5)^2)</f>
-        <v>6.6178625373060664E-7</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,00006243(66)</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="L22" s="2">
+        <f t="shared" si="10"/>
+        <v>2.345567672798584E-6</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K22,RIGHT(TEXT(L22,"0,00E+00"),2)+1,TRUE),"(",LEFT(L22*10^LEN(L22),2),")")</f>
+        <v>0,0000624(23)</v>
+      </c>
       <c r="O22" s="4"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -1600,48 +1755,62 @@
         <v>17.399999999999999</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="F23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="8"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>17,40(11)</v>
       </c>
-      <c r="H23" s="2">
-        <f>$J$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
+      <c r="K23" s="2">
+        <f>$M$1/B23*E23/SQRT(E23^2+$C$19^2)</f>
         <v>6.3472984126403611E-5</v>
       </c>
-      <c r="I23" s="2">
-        <f>SQRT(($J$1*$C$19^2*$C$37/B23/(E23^2+$C$19^2)^1.5)^2+(-$J$1*$C$19*E23*$C$37/B23/(E23^2+$C$19^2)^1.5)^2)</f>
-        <v>3.4572534874298503E-7</v>
-      </c>
-      <c r="J23" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,00006347(34)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="L23" s="2">
+        <f t="shared" si="10"/>
+        <v>3.1855213978527374E-7</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K23,RIGHT(TEXT(L23,"0,00E+00"),2)+1,TRUE),"(",LEFT(L23*10^LEN(L23),2),")")</f>
+        <v>0,00006347(31)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H24" s="17"/>
       <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="16">
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="H25" s="17"/>
       <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1654,20 +1823,29 @@
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -1678,30 +1856,42 @@
         <v>5.8</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ref="E27" si="10">(C27+D27)/2</f>
+        <f t="shared" ref="E27" si="22">(C27+D27)/2</f>
         <v>5.75</v>
       </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" ref="F27" si="11">_xlfn.CONCAT(FIXED(E27,RIGHT(TEXT($C$37,"0,00E+00"),2)+1,TRUE),"(",LEFT($C$37*10^LEN($C$37),2),")")</f>
-        <v>5,75(11)</v>
-      </c>
-      <c r="H27" s="2">
-        <f>$J$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F28" si="23">STDEVA(C27:D27)</f>
+        <v>7.0710678118654502E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ref="G27" si="24">F27*$A$3/SQRT(2-1)</f>
+        <v>0.12989551570396832</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" ref="H27" si="25">SQRT(G27^2+$B$32^2)</f>
+        <v>0.17379924721739509</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" ref="I27" si="26">_xlfn.CONCAT(FIXED(E27,RIGHT(TEXT(H27,"0,00E+00"),2)+1,TRUE),"(",LEFT(H27*10^LEN(H27),2),")")</f>
+        <v>5,75(17)</v>
+      </c>
+      <c r="K27" s="2">
+        <f>$M$1/B27*E27/SQRT(E27^2+$C$25^2)</f>
         <v>6.2746747984227357E-5</v>
       </c>
-      <c r="I27" s="2">
-        <f>SQRT(($J$1*$C$25^2*$C$37/B27/(E27^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E27*$C$37/B27/(E27^2+$C$25^2)^1.5)^2)</f>
-        <v>1.2375382553465084E-6</v>
-      </c>
-      <c r="J27" s="2" t="str">
-        <f t="shared" ref="J27" si="12">_xlfn.CONCAT(FIXED(H27,RIGHT(TEXT(I27,"0,00E+00"),2)+1,TRUE),"(",LEFT(I27*10^LEN(I27),2),")")</f>
-        <v>0,0000627(12)</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L27" s="2">
+        <f t="shared" ref="L27" si="27">SQRT(($M$1*$C$1^2*H27/B27/(E27^2+$C$1^2)^1.5)^2+(-$M$1*$C$1*E27*H27/B27/(E27^2+$C$1^2)^1.5)^2)</f>
+        <v>4.3538248872370751E-6</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K27,RIGHT(TEXT(L27,"0,00E+00"),2)+1,TRUE),"(",LEFT(L27*10^LEN(L27),2),")")</f>
+        <v>0,0000627(43)</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -1712,30 +1902,42 @@
         <v>12.3</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12.15</v>
       </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>12,15(11)</v>
-      </c>
-      <c r="H28" s="2">
-        <f>$J$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
+      <c r="F28" s="1">
+        <f t="shared" si="23"/>
+        <v>0.21213203435596475</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.38968654711190726</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="8"/>
+        <v>0.40643442070441582</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>12,15(40)</v>
+      </c>
+      <c r="K28" s="2">
+        <f>$M$1/B28*E28/SQRT(E28^2+$C$25^2)</f>
         <v>6.2563727953273213E-5</v>
       </c>
-      <c r="I28" s="2">
-        <f>SQRT(($J$1*$C$25^2*$C$37/B28/(E28^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E28*$C$37/B28/(E28^2+$C$25^2)^1.5)^2)</f>
-        <v>5.511052589932209E-7</v>
-      </c>
-      <c r="J28" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,00006256(55)</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L28" s="2">
+        <f t="shared" si="10"/>
+        <v>2.735578152930473E-6</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K28,RIGHT(TEXT(L28,"0,00E+00"),2)+1,TRUE),"(",LEFT(L28*10^LEN(L28),2),")")</f>
+        <v>0,0000626(27)</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>3</v>
       </c>
@@ -1746,50 +1948,50 @@
         <v>21.3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20.9</v>
       </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>20,90(11)</v>
-      </c>
-      <c r="H29" s="2">
-        <f>$J$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
+      <c r="F29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.56568542494923857</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0391641256317512</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="8"/>
+        <v>1.0455598564086781</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>20,9(10)</v>
+      </c>
+      <c r="K29" s="2">
+        <f>$M$1/B29*E29/SQRT(E29^2+$C$25^2)</f>
         <v>6.3513922365340735E-5</v>
       </c>
-      <c r="I29" s="2">
-        <f>SQRT(($J$1*$C$25^2*$C$37/B29/(E29^2+$C$25^2)^1.5)^2+(-$J$1*$C$25*E29*$C$37/B29/(E29^2+$C$25^2)^1.5)^2)</f>
-        <v>2.8792437179535666E-7</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0,00006351(28)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="10"/>
+        <v>2.1641421988923841E-6</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(K29,RIGHT(TEXT(L29,"0,00E+00"),2)+1,TRUE),"(",LEFT(L29*10^LEN(L29),2),")")</f>
+        <v>0,0000635(21)</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f>0.2/SQRT(3)</f>
         <v>0.11547005383792516</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="1">
-        <f>SQRT(A32^2+B32^2)</f>
-        <v>0.11547005383792516</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1800,18 +2002,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
@@ -1826,26 +2031,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>1</v>
       </c>
       <c r="B41" s="2">
         <v>0.1</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" ref="C41:D43" si="13">H3</f>
+      <c r="C41" s="13">
+        <f t="shared" ref="C41:D43" si="28">K3</f>
         <v>5.9050999438421717E-5</v>
       </c>
-      <c r="D41" s="2">
-        <f t="shared" si="13"/>
+      <c r="D41" s="12">
+        <f t="shared" si="28"/>
         <v>3.7282078599355915E-6</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="14">
         <f>1/D41^2</f>
         <v>71944858800.000015</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="13">
         <f>C41*E41</f>
         <v>4248415.8165961308</v>
       </c>
@@ -1854,38 +2059,38 @@
       </c>
       <c r="H41" s="2">
         <f>SUM(F41:F55)/SUM(E41:E55)</f>
-        <v>6.2816330289970155E-5</v>
+        <v>6.2989311930041804E-5</v>
       </c>
       <c r="I41" s="2">
         <f>SQRT(1/SUM(E41:E55))</f>
-        <v>1.5899076261881385E-7</v>
+        <v>2.7580401214938222E-7</v>
       </c>
       <c r="J41" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(H41,RIGHT(TEXT(I41,"0,00E+00"),2)+1,TRUE),"(",LEFT(I41*10^LEN(I41),2),")")</f>
-        <v>0,00006282(15)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0,00006299(27)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>2</v>
       </c>
       <c r="B42" s="2">
         <v>0.1</v>
       </c>
-      <c r="C42" s="2">
-        <f t="shared" si="13"/>
+      <c r="C42" s="13">
+        <f t="shared" si="28"/>
         <v>6.0557546081940649E-5</v>
       </c>
-      <c r="D42" s="2">
-        <f t="shared" si="13"/>
+      <c r="D42" s="12">
+        <f t="shared" si="28"/>
         <v>1.6704286930811143E-6</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" ref="E42:E55" si="14">1/D42^2</f>
+      <c r="E42" s="14">
+        <f>1/D42^2</f>
         <v>358380290700.00024</v>
       </c>
-      <c r="F42" s="2">
-        <f t="shared" ref="F42:F55" si="15">C42*E42</f>
+      <c r="F42" s="13">
+        <f t="shared" ref="F42:F55" si="29">C42*E42</f>
         <v>21702630.968924552</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -1893,327 +2098,383 @@
       </c>
       <c r="H42" s="1">
         <f>H41*10^7</f>
-        <v>628.16330289970153</v>
+        <v>629.89311930041799</v>
       </c>
       <c r="I42" s="1">
         <f>I41*10^7</f>
-        <v>1.5899076261881384</v>
+        <v>2.7580401214938224</v>
       </c>
       <c r="J42" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(H42,RIGHT(TEXT(I42,"0,00E+00"),2)+1,TRUE),"(",LEFT(I42*10^LEN(I42),2),")")</f>
-        <v>628,2(15)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+        <v>629,9(27)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>3</v>
       </c>
       <c r="B43" s="2">
         <v>0.1</v>
       </c>
-      <c r="C43" s="2">
-        <f t="shared" si="13"/>
+      <c r="C43" s="13">
+        <f t="shared" si="28"/>
         <v>6.1204689814526496E-5</v>
       </c>
-      <c r="D43" s="2">
-        <f t="shared" si="13"/>
+      <c r="D43" s="12">
+        <f t="shared" si="28"/>
         <v>8.9370339802115323E-7</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="14"/>
+      <c r="E43" s="14">
+        <f t="shared" ref="E43:E55" si="30">1/D43^2</f>
         <v>1252025521200.0017</v>
       </c>
-      <c r="F43" s="2">
-        <f t="shared" si="15"/>
+      <c r="F43" s="13">
+        <f t="shared" si="29"/>
         <v>76629833.664916977</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>1</v>
       </c>
       <c r="B44" s="2">
         <v>0.15</v>
       </c>
-      <c r="C44" s="2">
-        <f t="shared" ref="C44:D46" si="16">H9</f>
+      <c r="C44" s="13">
+        <f t="shared" ref="C44:D46" si="31">K9</f>
         <v>6.116570436762861E-5</v>
       </c>
-      <c r="D44" s="2">
-        <f t="shared" si="16"/>
-        <v>2.4796008812473201E-6</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="14"/>
-        <v>162643396799.99985</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="15"/>
-        <v>9948197.926015703</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D44" s="12">
+        <f t="shared" si="31"/>
+        <v>3.5691782219932365E-6</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="30"/>
+        <v>78498892799.999954</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="29"/>
+        <v>4801440.0701909671</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f>J39</f>
+        <v>6)</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f>I39</f>
+        <v>5)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>2</v>
       </c>
       <c r="B45" s="2">
         <v>0.15</v>
       </c>
-      <c r="C45" s="2">
-        <f t="shared" si="16"/>
+      <c r="C45" s="13">
+        <f t="shared" si="31"/>
         <v>6.2342351471836627E-5</v>
       </c>
-      <c r="D45" s="2">
-        <f t="shared" si="16"/>
-        <v>1.1034876753655379E-6</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="14"/>
-        <v>821230416074.99866</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="15"/>
-        <v>51197435.238310196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D45" s="12">
+        <f t="shared" si="31"/>
+        <v>2.1204986148056725E-6</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="30"/>
+        <v>222394485264.522</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="29"/>
+        <v>13864595.165759023</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>I40</f>
+        <v>u(śr waż λ)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>3</v>
       </c>
       <c r="B46" s="2">
         <v>0.15</v>
       </c>
-      <c r="C46" s="2">
-        <f t="shared" si="16"/>
+      <c r="C46" s="13">
+        <f t="shared" si="31"/>
         <v>6.1419516128867078E-5</v>
       </c>
-      <c r="D46" s="2">
-        <f t="shared" si="16"/>
-        <v>5.9397717526832474E-7</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="14"/>
-        <v>2834395740168.7461</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="15"/>
-        <v>174087214.87888643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D46" s="12">
+        <f t="shared" si="31"/>
+        <v>3.6831607759334149E-6</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="30"/>
+        <v>73715471232.72406</v>
+      </c>
+      <c r="F46" s="13">
+        <f t="shared" si="29"/>
+        <v>4527568.5743253324</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>J41</f>
+        <v>0,00006299(27)</v>
+      </c>
+      <c r="J46" s="11">
+        <f>I41</f>
+        <v>2.7580401214938222E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>1</v>
       </c>
       <c r="B47" s="2">
         <v>0.2</v>
       </c>
-      <c r="C47" s="2">
-        <f t="shared" ref="C47:D49" si="17">H15</f>
+      <c r="C47" s="13">
+        <f t="shared" ref="C47:D49" si="32">K15</f>
         <v>6.2220215274423393E-5</v>
       </c>
-      <c r="D47" s="2">
-        <f t="shared" si="17"/>
-        <v>1.8574470584873586E-6</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="14"/>
-        <v>289845866700.00006</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="15"/>
-        <v>18034272.22247583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D47" s="12">
+        <f t="shared" si="32"/>
+        <v>3.3633360665829283E-6</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="30"/>
+        <v>88401466800.000092</v>
+      </c>
+      <c r="F47" s="13">
+        <f t="shared" si="29"/>
+        <v>5500358.2948707985</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f>J42</f>
+        <v>629,9(27)</v>
+      </c>
+      <c r="J47" s="15">
+        <f>I42</f>
+        <v>2.7580401214938224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>2</v>
       </c>
       <c r="B48" s="2">
         <v>0.2</v>
       </c>
-      <c r="C48" s="2">
-        <f t="shared" si="17"/>
+      <c r="C48" s="13">
+        <f t="shared" si="32"/>
         <v>6.0894058768842837E-5</v>
       </c>
-      <c r="D48" s="2">
-        <f t="shared" si="17"/>
-        <v>8.337985680068678E-7</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="14"/>
-        <v>1438393494417.189</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="15"/>
-        <v>87589617.981761515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D48" s="12">
+        <f t="shared" si="32"/>
+        <v>1.7922344477346479E-6</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="30"/>
+        <v>311322392342.24933</v>
+      </c>
+      <c r="F48" s="13">
+        <f t="shared" si="29"/>
+        <v>18957684.055345677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>3</v>
       </c>
       <c r="B49" s="2">
         <v>0.2</v>
       </c>
-      <c r="C49" s="2">
-        <f t="shared" si="17"/>
+      <c r="C49" s="13">
+        <f t="shared" si="32"/>
         <v>6.2635689379315256E-5</v>
       </c>
-      <c r="D49" s="2">
-        <f t="shared" si="17"/>
-        <v>4.3764331002107824E-7</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="14"/>
-        <v>5221068748969.9229</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="15"/>
-        <v>327025240.38853019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D49" s="12">
+        <f t="shared" si="32"/>
+        <v>2.5599043117906848E-6</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="30"/>
+        <v>152599298188.03824</v>
+      </c>
+      <c r="F49" s="13">
+        <f t="shared" si="29"/>
+        <v>9558162.2408074681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>1</v>
       </c>
       <c r="B50" s="2">
         <v>0.25</v>
       </c>
-      <c r="C50" s="2">
-        <f t="shared" ref="C50:D52" si="18">H21</f>
+      <c r="C50" s="13">
+        <f t="shared" ref="C50:D52" si="33">K21</f>
         <v>6.1587738773295785E-5</v>
       </c>
-      <c r="D50" s="2">
-        <f t="shared" si="18"/>
-        <v>1.4870426813107553E-6</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="14"/>
-        <v>452223505547.99963</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="15"/>
-        <v>27851423.126834277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D50" s="12">
+        <f t="shared" si="33"/>
+        <v>3.1525938198030192E-6</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="30"/>
+        <v>100615284674.99995</v>
+      </c>
+      <c r="F50" s="13">
+        <f t="shared" si="29"/>
+        <v>6196667.8691646876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>2</v>
       </c>
       <c r="B51" s="2">
         <v>0.25</v>
       </c>
-      <c r="C51" s="2">
-        <f t="shared" si="18"/>
+      <c r="C51" s="13">
+        <f t="shared" si="33"/>
         <v>6.243094820834299E-5</v>
       </c>
-      <c r="D51" s="2">
-        <f t="shared" si="18"/>
-        <v>6.6178625373060664E-7</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="14"/>
-        <v>2283308093231.998</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="15"/>
-        <v>142549089.31225726</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D51" s="12">
+        <f t="shared" si="33"/>
+        <v>2.345567672798584E-6</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="30"/>
+        <v>181762406943.68582</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="29"/>
+        <v>11347599.414125012</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>3</v>
       </c>
       <c r="B52" s="2">
         <v>0.25</v>
       </c>
-      <c r="C52" s="2">
-        <f t="shared" si="18"/>
+      <c r="C52" s="13">
+        <f t="shared" si="33"/>
         <v>6.3472984126403611E-5</v>
       </c>
-      <c r="D52" s="2">
-        <f t="shared" si="18"/>
-        <v>3.4572534874298503E-7</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="14"/>
-        <v>8366379363072.0146</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="15"/>
-        <v>531039064.50774074</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D52" s="12">
+        <f t="shared" si="33"/>
+        <v>3.1855213978527374E-7</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="30"/>
+        <v>9854598769199.998</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="29"/>
+        <v>625500791.24950802</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>1</v>
       </c>
       <c r="B53" s="2">
         <v>0.3</v>
       </c>
-      <c r="C53" s="2">
-        <f t="shared" ref="C53:D55" si="19">H27</f>
+      <c r="C53" s="13">
+        <f t="shared" ref="C53:D55" si="34">K27</f>
         <v>6.2746747984227357E-5</v>
       </c>
-      <c r="D53" s="2">
-        <f t="shared" si="19"/>
-        <v>1.2375382553465084E-6</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="14"/>
-        <v>652954221679.6875</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="15"/>
-        <v>40970753.992972672</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D53" s="12">
+        <f t="shared" si="34"/>
+        <v>4.3538248872370751E-6</v>
+      </c>
+      <c r="E53" s="14">
+        <f t="shared" si="30"/>
+        <v>52754326746.592445</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="29"/>
+        <v>3310162.4454460209</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>2</v>
       </c>
       <c r="B54" s="2">
         <v>0.3</v>
       </c>
-      <c r="C54" s="2">
-        <f t="shared" si="19"/>
+      <c r="C54" s="13">
+        <f t="shared" si="34"/>
         <v>6.2563727953273213E-5</v>
       </c>
-      <c r="D54" s="2">
-        <f t="shared" si="19"/>
-        <v>5.511052589932209E-7</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="14"/>
-        <v>3292538707518.752</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="15"/>
-        <v>205993495.97282499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D54" s="12">
+        <f t="shared" si="34"/>
+        <v>2.735578152930473E-6</v>
+      </c>
+      <c r="E54" s="14">
+        <f t="shared" si="30"/>
+        <v>133629316375.33028</v>
+      </c>
+      <c r="F54" s="13">
+        <f t="shared" si="29"/>
+        <v>8360348.1962880408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>3</v>
       </c>
       <c r="B55" s="2">
         <v>0.3</v>
       </c>
-      <c r="C55" s="2">
-        <f t="shared" si="19"/>
+      <c r="C55" s="13">
+        <f t="shared" si="34"/>
         <v>6.3513922365340735E-5</v>
       </c>
-      <c r="D55" s="2">
-        <f t="shared" si="19"/>
-        <v>2.8792437179535666E-7</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="14"/>
-        <v>12062661588674.984</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="15"/>
-        <v>766146951.66248071</v>
+      <c r="D55" s="12">
+        <f t="shared" si="34"/>
+        <v>2.1641421988923841E-6</v>
+      </c>
+      <c r="E55" s="14">
+        <f t="shared" si="30"/>
+        <v>213515010943.27005</v>
+      </c>
+      <c r="F55" s="13">
+        <f t="shared" si="29"/>
+        <v>13561175.828885732</v>
       </c>
     </row>
   </sheetData>
@@ -2228,29 +2489,29 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="8.7265625" style="1"/>
-    <col min="21" max="21" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="8.7109375" style="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2533,7 @@
         <v>3.3333333333333333E-6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2325,7 +2586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -2352,7 +2613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -2379,7 +2640,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2388,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2414,7 +2675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -2444,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -2471,7 +2732,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -2498,7 +2759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +2768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2533,7 +2794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -2560,7 +2821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -2587,7 +2848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -2614,7 +2875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2624,7 +2885,7 @@
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
@@ -2650,7 +2911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -2681,7 +2942,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -2713,7 +2974,7 @@
       <c r="O22" s="4"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -2740,13 +3001,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -2759,7 +3020,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2785,7 +3046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -2815,7 +3076,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -2845,7 +3106,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>3</v>
       </c>
@@ -2872,17 +3133,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +3152,7 @@
         <v>1.414213562373095E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2902,7 +3163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +3192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -2970,7 +3231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>2</v>
       </c>
@@ -3009,7 +3270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>3</v>
       </c>
@@ -3033,7 +3294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -3057,7 +3318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>2</v>
       </c>
@@ -3081,7 +3342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>3</v>
       </c>
@@ -3105,7 +3366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>1</v>
       </c>
@@ -3129,7 +3390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>2</v>
       </c>
@@ -3153,7 +3414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>3</v>
       </c>
@@ -3177,7 +3438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -3201,7 +3462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>2</v>
       </c>
@@ -3225,7 +3486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>3</v>
       </c>
@@ -3249,7 +3510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>1</v>
       </c>
@@ -3273,7 +3534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>2</v>
       </c>
@@ -3297,7 +3558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>3</v>
       </c>
@@ -3333,15 +3594,15 @@
   <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D29"/>
+      <selection activeCell="C1" sqref="C1:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3362,7 +3623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3382,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -3404,7 +3665,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -3426,7 +3687,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -3448,7 +3709,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3469,7 +3730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -3489,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -3511,7 +3772,7 @@
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -3533,7 +3794,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -3555,7 +3816,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -3576,7 +3837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -3596,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -3618,7 +3879,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -3640,7 +3901,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -3662,7 +3923,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -3683,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -3703,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>1</v>
       </c>
@@ -3725,7 +3986,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2</v>
       </c>
@@ -3747,7 +4008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -3769,7 +4030,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
@@ -3790,7 +4051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -3810,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>1</v>
       </c>
@@ -3832,7 +4093,7 @@
         <v>5.7999999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -3854,7 +4115,7 @@
         <v>0.12300000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>3</v>
       </c>
